--- a/Data/Disponibel indkomst tidsserie.xlsx
+++ b/Data/Disponibel indkomst tidsserie.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deciler" sheetId="1" r:id="rId1"/>
+    <sheet name="Kvintiler" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Hele landet</t>
   </si>
@@ -60,6 +61,24 @@
   </si>
   <si>
     <t>Aar</t>
+  </si>
+  <si>
+    <t>kvint 1</t>
+  </si>
+  <si>
+    <t>kvint 2</t>
+  </si>
+  <si>
+    <t>kvint 3</t>
+  </si>
+  <si>
+    <t>kvint 4</t>
+  </si>
+  <si>
+    <t>kvint 5</t>
+  </si>
+  <si>
+    <t>Andel</t>
   </si>
 </sst>
 </file>
@@ -102,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -111,6 +130,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,4 +1449,1253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="6">
+        <f>SUM(Deciler!C2:D2)</f>
+        <v>392009.15</v>
+      </c>
+      <c r="C2" s="6">
+        <f>SUM(Deciler!E2:F2)</f>
+        <v>612026.48</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM(Deciler!G2:H2)</f>
+        <v>927983.33000000007</v>
+      </c>
+      <c r="E2" s="6">
+        <f>SUM(Deciler!I2:J2)</f>
+        <v>1083464.21</v>
+      </c>
+      <c r="F2" s="6">
+        <f>SUM(Deciler!K2:L2)</f>
+        <v>1698144.8</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2">
+        <f>B2/SUM($B2:$F2)</f>
+        <v>8.3165059375697833E-2</v>
+      </c>
+      <c r="I2">
+        <f>C2/SUM($B2:$F2)</f>
+        <v>0.12984191452852398</v>
+      </c>
+      <c r="J2">
+        <f>D2/SUM($B2:$F2)</f>
+        <v>0.19687241672575193</v>
+      </c>
+      <c r="K2">
+        <f>E2/SUM($B2:$F2)</f>
+        <v>0.22985781162529889</v>
+      </c>
+      <c r="L2">
+        <f>F2/SUM($B2:$F2)</f>
+        <v>0.36026279774472741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="6">
+        <f>SUM(Deciler!C3:D3)</f>
+        <v>376331.39</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SUM(Deciler!E3:F3)</f>
+        <v>598579.82999999996</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUM(Deciler!G3:H3)</f>
+        <v>860006.02</v>
+      </c>
+      <c r="E3" s="6">
+        <f>SUM(Deciler!I3:J3)</f>
+        <v>1059221.1200000001</v>
+      </c>
+      <c r="F3" s="6">
+        <f>SUM(Deciler!K3:L3)</f>
+        <v>1625964.42</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="0">B3/SUM($B3:$F3)</f>
+        <v>8.3257263897879769E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="1">C3/SUM($B3:$F3)</f>
+        <v>0.1324261546990752</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="2">D3/SUM($B3:$F3)</f>
+        <v>0.19026249221704644</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K27" si="3">E3/SUM($B3:$F3)</f>
+        <v>0.23433562720890166</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L27" si="4">F3/SUM($B3:$F3)</f>
+        <v>0.35971846197709684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="6">
+        <f>SUM(Deciler!C4:D4)</f>
+        <v>359964.38</v>
+      </c>
+      <c r="C4" s="6">
+        <f>SUM(Deciler!E4:F4)</f>
+        <v>552962.86</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUM(Deciler!G4:H4)</f>
+        <v>783945.48</v>
+      </c>
+      <c r="E4" s="6">
+        <f>SUM(Deciler!I4:J4)</f>
+        <v>1005621.8200000001</v>
+      </c>
+      <c r="F4" s="6">
+        <f>SUM(Deciler!K4:L4)</f>
+        <v>1560966.62</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>8.4430083092395289E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.12969811128759057</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.18387536571342894</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.23586982084762326</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0.36612661905896193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(Deciler!C5:D5)</f>
+        <v>379162.18</v>
+      </c>
+      <c r="C5" s="6">
+        <f>SUM(Deciler!E5:F5)</f>
+        <v>559357.5</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM(Deciler!G5:H5)</f>
+        <v>750643.3</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUM(Deciler!I5:J5)</f>
+        <v>1007190.7</v>
+      </c>
+      <c r="F5" s="6">
+        <f>SUM(Deciler!K5:L5)</f>
+        <v>1500277.25</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>9.0349183982209272E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.13328727479974037</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.17886807596873908</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.23999982767128869</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.35749563757802266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(Deciler!C6:D6)</f>
+        <v>391120.33</v>
+      </c>
+      <c r="C6" s="6">
+        <f>SUM(Deciler!E6:F6)</f>
+        <v>567071.19999999995</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM(Deciler!G6:H6)</f>
+        <v>847708.83000000007</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUM(Deciler!I6:J6)</f>
+        <v>1024649.63</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM(Deciler!K6:L6)</f>
+        <v>1590174.94</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.8474251665325854E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.12827561293210796</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.19175787759316662</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.23178316819635283</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>0.35970908961304682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="6">
+        <f>SUM(Deciler!C7:D7)</f>
+        <v>376777.35</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(Deciler!E7:F7)</f>
+        <v>552936</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUM(Deciler!G7:H7)</f>
+        <v>806087.8</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUM(Deciler!I7:J7)</f>
+        <v>977889.66999999993</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUM(Deciler!K7:L7)</f>
+        <v>1579367.65</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.7764318290312032E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.12879768674569206</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.18776539048628427</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.22778391602013284</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.36788868845757883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="6">
+        <f>SUM(Deciler!C8:D8)</f>
+        <v>361103.72</v>
+      </c>
+      <c r="C8" s="6">
+        <f>SUM(Deciler!E8:F8)</f>
+        <v>559050.53</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(Deciler!G8:H8)</f>
+        <v>780603.54</v>
+      </c>
+      <c r="E8" s="6">
+        <f>SUM(Deciler!I8:J8)</f>
+        <v>984654.21</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SUM(Deciler!K8:L8)</f>
+        <v>1558911.4500000002</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>8.5079217984670788E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.13171723045754205</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.18391707163599891</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.23199320730374587</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.36729327261804234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SUM(Deciler!C9:D9)</f>
+        <v>337262.99</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUM(Deciler!E9:F9)</f>
+        <v>525419.40999999992</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM(Deciler!G9:H9)</f>
+        <v>737736.64999999991</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(Deciler!I9:J9)</f>
+        <v>913900.46</v>
+      </c>
+      <c r="F9" s="6">
+        <f>SUM(Deciler!K9:L9)</f>
+        <v>1362091.25</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.7003935052538145E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.13554275914763994</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.19031436441477631</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.23575944774232338</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.35137949364272225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="6">
+        <f>SUM(Deciler!C10:D10)</f>
+        <v>347993.62</v>
+      </c>
+      <c r="C10" s="6">
+        <f>SUM(Deciler!E10:F10)</f>
+        <v>515566.67</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM(Deciler!G10:H10)</f>
+        <v>734409.53</v>
+      </c>
+      <c r="E10" s="6">
+        <f>SUM(Deciler!I10:J10)</f>
+        <v>894354.86</v>
+      </c>
+      <c r="F10" s="6">
+        <f>SUM(Deciler!K10:L10)</f>
+        <v>1310199.46</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9.1516478840815457E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.13558537724365372</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.19313737479652135</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.23520031091768426</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.34456045820132514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="6">
+        <f>SUM(Deciler!C11:D11)</f>
+        <v>330026.07</v>
+      </c>
+      <c r="C11" s="6">
+        <f>SUM(Deciler!E11:F11)</f>
+        <v>513082.18000000005</v>
+      </c>
+      <c r="D11" s="6">
+        <f>SUM(Deciler!G11:H11)</f>
+        <v>718697.1399999999</v>
+      </c>
+      <c r="E11" s="6">
+        <f>SUM(Deciler!I11:J11)</f>
+        <v>901143.25</v>
+      </c>
+      <c r="F11" s="6">
+        <f>SUM(Deciler!K11:L11)</f>
+        <v>1281035.26</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8.8148367838868119E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.13704176986444844</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.19196053166788457</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.24069100564241211</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.34215832498638687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="6">
+        <f>SUM(Deciler!C12:D12)</f>
+        <v>291268.19</v>
+      </c>
+      <c r="C12" s="6">
+        <f>SUM(Deciler!E12:F12)</f>
+        <v>495171.1</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM(Deciler!G12:H12)</f>
+        <v>699626.76</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SUM(Deciler!I12:J12)</f>
+        <v>859161.8</v>
+      </c>
+      <c r="F12" s="6">
+        <f>SUM(Deciler!K12:L12)</f>
+        <v>1244165.5900000001</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>8.1146910994521676E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.13795397698169301</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.1949150383469804</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.23936127770936139</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.34662279596744344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="6">
+        <f>SUM(Deciler!C13:D13)</f>
+        <v>306670.95999999996</v>
+      </c>
+      <c r="C13" s="6">
+        <f>SUM(Deciler!E13:F13)</f>
+        <v>521166.77</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM(Deciler!G13:H13)</f>
+        <v>690998.21</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(Deciler!I13:J13)</f>
+        <v>859090.5</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(Deciler!K13:L13)</f>
+        <v>1295240.98</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>8.3489513255020645E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.14188483954265282</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.18812053222447453</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.2338827507078346</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.35262236427001742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="6">
+        <f>SUM(Deciler!C14:D14)</f>
+        <v>255270.18000000002</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SUM(Deciler!E14:F14)</f>
+        <v>504285.57</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM(Deciler!G14:H14)</f>
+        <v>672902.09</v>
+      </c>
+      <c r="E14" s="6">
+        <f>SUM(Deciler!I14:J14)</f>
+        <v>789494.01</v>
+      </c>
+      <c r="F14" s="6">
+        <f>SUM(Deciler!K14:L14)</f>
+        <v>1248173.0900000001</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7.3562244706958616E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.14532202117195242</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.193912928679738</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.22751169587571107</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.3596911095656401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="6">
+        <f>SUM(Deciler!C15:D15)</f>
+        <v>312623.45</v>
+      </c>
+      <c r="C15" s="6">
+        <f>SUM(Deciler!E15:F15)</f>
+        <v>459488.77999999997</v>
+      </c>
+      <c r="D15" s="6">
+        <f>SUM(Deciler!G15:H15)</f>
+        <v>659109.15999999992</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(Deciler!I15:J15)</f>
+        <v>747192.23</v>
+      </c>
+      <c r="F15" s="6">
+        <f>SUM(Deciler!K15:L15)</f>
+        <v>1106927.6800000002</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>9.51570693735838E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.13986028787937493</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.2006212139968532</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.22743214837374731</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.33692928037644065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(Deciler!C16:D16)</f>
+        <v>305098.57</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(Deciler!E16:F16)</f>
+        <v>454439.88</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(Deciler!G16:H16)</f>
+        <v>617157.43999999994</v>
+      </c>
+      <c r="E16" s="6">
+        <f>SUM(Deciler!I16:J16)</f>
+        <v>738346.5</v>
+      </c>
+      <c r="F16" s="6">
+        <f>SUM(Deciler!K16:L16)</f>
+        <v>1079068.53</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>9.5519090489193159E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.14227429522078089</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.19321728501526175</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.23115869125797298</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0.33783063801679125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="6">
+        <f>SUM(Deciler!C17:D17)</f>
+        <v>290135.71000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <f>SUM(Deciler!E17:F17)</f>
+        <v>427678.11</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(Deciler!G17:H17)</f>
+        <v>566142.53</v>
+      </c>
+      <c r="E17" s="6">
+        <f>SUM(Deciler!I17:J17)</f>
+        <v>660707.6</v>
+      </c>
+      <c r="F17" s="6">
+        <f>SUM(Deciler!K17:L17)</f>
+        <v>1017329.5700000001</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.7952851024468129E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.1443886041992421</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.19113564097196267</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.22306179792047617</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.34346110588385076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="6">
+        <f>SUM(Deciler!C18:D18)</f>
+        <v>243054.57</v>
+      </c>
+      <c r="C18" s="6">
+        <f>SUM(Deciler!E18:F18)</f>
+        <v>383518.58999999997</v>
+      </c>
+      <c r="D18" s="6">
+        <f>SUM(Deciler!G18:H18)</f>
+        <v>505254.36</v>
+      </c>
+      <c r="E18" s="6">
+        <f>SUM(Deciler!I18:J18)</f>
+        <v>635110.9</v>
+      </c>
+      <c r="F18" s="6">
+        <f>SUM(Deciler!K18:L18)</f>
+        <v>932358.83000000007</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>9.0043647471578017E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.14208090272384782</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.18717996322931829</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.23528749936673332</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0.34540798720852256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="6">
+        <f>SUM(Deciler!C19:D19)</f>
+        <v>238840.02</v>
+      </c>
+      <c r="C19" s="6">
+        <f>SUM(Deciler!E19:F19)</f>
+        <v>372594.11</v>
+      </c>
+      <c r="D19" s="6">
+        <f>SUM(Deciler!G19:H19)</f>
+        <v>507398.27999999997</v>
+      </c>
+      <c r="E19" s="6">
+        <f>SUM(Deciler!I19:J19)</f>
+        <v>612645.31000000006</v>
+      </c>
+      <c r="F19" s="6">
+        <f>SUM(Deciler!K19:L19)</f>
+        <v>906150.51</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>9.055105540783509E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.14126104117410057</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.19236914218195184</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.23227128942277056</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.34354747181334194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20" s="6">
+        <f>SUM(Deciler!C20:D20)</f>
+        <v>244941.79</v>
+      </c>
+      <c r="C20" s="6">
+        <f>SUM(Deciler!E20:F20)</f>
+        <v>370683.76</v>
+      </c>
+      <c r="D20" s="6">
+        <f>SUM(Deciler!G20:H20)</f>
+        <v>495659.45999999996</v>
+      </c>
+      <c r="E20" s="6">
+        <f>SUM(Deciler!I20:J20)</f>
+        <v>615546.29</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(Deciler!K20:L20)</f>
+        <v>899595.03</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>9.3260483723524051E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.14113617266394066</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.1887201077518896</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.23436647849932271</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0.34251675736132298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="6">
+        <f>SUM(Deciler!C21:D21)</f>
+        <v>257555.02000000002</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(Deciler!E21:F21)</f>
+        <v>379811.65</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(Deciler!G21:H21)</f>
+        <v>464830.9</v>
+      </c>
+      <c r="E21" s="6">
+        <f>SUM(Deciler!I21:J21)</f>
+        <v>589598.09000000008</v>
+      </c>
+      <c r="F21" s="6">
+        <f>SUM(Deciler!K21:L21)</f>
+        <v>898323.25</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>9.9437527368193307E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.14663869235254531</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.17946315059334478</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.2276335992620509</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0.34682703042386576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1999</v>
+      </c>
+      <c r="B22" s="6">
+        <f>SUM(Deciler!C22:D22)</f>
+        <v>260181.23</v>
+      </c>
+      <c r="C22" s="6">
+        <f>SUM(Deciler!E22:F22)</f>
+        <v>357168.73</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(Deciler!G22:H22)</f>
+        <v>451840.44</v>
+      </c>
+      <c r="E22" s="6">
+        <f>SUM(Deciler!I22:J22)</f>
+        <v>549858.01</v>
+      </c>
+      <c r="F22" s="6">
+        <f>SUM(Deciler!K22:L22)</f>
+        <v>854561.08000000007</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.10518282334047804</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.14439172045705564</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0.18266441886912391</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.22228973984086711</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.34547129749247524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="6">
+        <f>SUM(Deciler!C23:D23)</f>
+        <v>262743.42</v>
+      </c>
+      <c r="C23" s="6">
+        <f>SUM(Deciler!E23:F23)</f>
+        <v>346867.3</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(Deciler!G23:H23)</f>
+        <v>441045.13</v>
+      </c>
+      <c r="E23" s="6">
+        <f>SUM(Deciler!I23:J23)</f>
+        <v>531019.19999999995</v>
+      </c>
+      <c r="F23" s="6">
+        <f>SUM(Deciler!K23:L23)</f>
+        <v>834758.28</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.10873191357611342</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.14354515628204814</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.18251905588473238</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.21975330062178869</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0.34545057363531728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1997</v>
+      </c>
+      <c r="B24" s="6">
+        <f>SUM(Deciler!C24:D24)</f>
+        <v>239240.21000000002</v>
+      </c>
+      <c r="C24" s="6">
+        <f>SUM(Deciler!E24:F24)</f>
+        <v>332251.87</v>
+      </c>
+      <c r="D24" s="6">
+        <f>SUM(Deciler!G24:H24)</f>
+        <v>420340.68</v>
+      </c>
+      <c r="E24" s="6">
+        <f>SUM(Deciler!I24:J24)</f>
+        <v>502019.89</v>
+      </c>
+      <c r="F24" s="6">
+        <f>SUM(Deciler!K24:L24)</f>
+        <v>747707.03</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.10672935105613608</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.14822352175785034</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0.18752152072970907</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.22396008211568119</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0.33356552434062348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1996</v>
+      </c>
+      <c r="B25" s="6">
+        <f>SUM(Deciler!C25:D25)</f>
+        <v>230015.51</v>
+      </c>
+      <c r="C25" s="6">
+        <f>SUM(Deciler!E25:F25)</f>
+        <v>333223.48</v>
+      </c>
+      <c r="D25" s="6">
+        <f>SUM(Deciler!G25:H25)</f>
+        <v>401320.92000000004</v>
+      </c>
+      <c r="E25" s="6">
+        <f>SUM(Deciler!I25:J25)</f>
+        <v>474876.17</v>
+      </c>
+      <c r="F25" s="6">
+        <f>SUM(Deciler!K25:L25)</f>
+        <v>694334.2</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.1077976913241101</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.15616652041849602</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0.18808065880456448</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.22255262173770643</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0.32540250771512286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1995</v>
+      </c>
+      <c r="B26" s="6">
+        <f>SUM(Deciler!C26:D26)</f>
+        <v>231399.81</v>
+      </c>
+      <c r="C26" s="6">
+        <f>SUM(Deciler!E26:F26)</f>
+        <v>312096.92000000004</v>
+      </c>
+      <c r="D26" s="6">
+        <f>SUM(Deciler!G26:H26)</f>
+        <v>395188.42</v>
+      </c>
+      <c r="E26" s="6">
+        <f>SUM(Deciler!I26:J26)</f>
+        <v>459503.05</v>
+      </c>
+      <c r="F26" s="6">
+        <f>SUM(Deciler!K26:L26)</f>
+        <v>664809.57000000007</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.11216677660296259</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.15128320764011299</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.19156027492942951</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.2227356018906409</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.32225413893685406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1994</v>
+      </c>
+      <c r="B27" s="6">
+        <f>SUM(Deciler!C27:D27)</f>
+        <v>187038.85</v>
+      </c>
+      <c r="C27" s="6">
+        <f>SUM(Deciler!E27:F27)</f>
+        <v>296322.34999999998</v>
+      </c>
+      <c r="D27" s="6">
+        <f>SUM(Deciler!G27:H27)</f>
+        <v>381539.43999999994</v>
+      </c>
+      <c r="E27" s="6">
+        <f>SUM(Deciler!I27:J27)</f>
+        <v>447990.75</v>
+      </c>
+      <c r="F27" s="6">
+        <f>SUM(Deciler!K27:L27)</f>
+        <v>633487.44999999995</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>9.6095809385186304E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.15224289532452995</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.19602527121595711</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.23016626609031571</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0.32546975798401095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Disponibel indkomst tidsserie.xlsx
+++ b/Data/Disponibel indkomst tidsserie.xlsx
@@ -1453,15 +1453,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P13" sqref="P13:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2019</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.36026279774472741</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0.35971846197709684</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>0.36612661905896193</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -1682,8 +1682,23 @@
         <f t="shared" si="4"/>
         <v>0.35749563757802266</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>392009.15</v>
+      </c>
+      <c r="Q5">
+        <v>612026.48</v>
+      </c>
+      <c r="R5">
+        <v>927983.33000000007</v>
+      </c>
+      <c r="S5">
+        <v>1083464.21</v>
+      </c>
+      <c r="T5">
+        <v>1698144.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1728,8 +1743,23 @@
         <f t="shared" si="4"/>
         <v>0.35970908961304682</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>8.3165059375697833E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.12984191452852398</v>
+      </c>
+      <c r="R6">
+        <v>0.19687241672575193</v>
+      </c>
+      <c r="S6">
+        <v>0.22985781162529889</v>
+      </c>
+      <c r="T6">
+        <v>0.36026279774472741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -1774,8 +1804,11 @@
         <f t="shared" si="4"/>
         <v>0.36788868845757883</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>392009.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -1820,8 +1853,11 @@
         <f t="shared" si="4"/>
         <v>0.36729327261804234</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>612026.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -1866,8 +1902,11 @@
         <f t="shared" si="4"/>
         <v>0.35137949364272225</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>927983.33000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -1912,8 +1951,11 @@
         <f t="shared" si="4"/>
         <v>0.34456045820132514</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>1083464.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1958,8 +2000,11 @@
         <f t="shared" si="4"/>
         <v>0.34215832498638687</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1698144.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -2005,7 +2050,7 @@
         <v>0.34662279596744344</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -2050,8 +2095,11 @@
         <f t="shared" si="4"/>
         <v>0.35262236427001742</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>8.3165059375697833E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -2096,8 +2144,11 @@
         <f t="shared" si="4"/>
         <v>0.3596911095656401</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>0.12984191452852398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -2142,8 +2193,11 @@
         <f t="shared" si="4"/>
         <v>0.33692928037644065</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0.19687241672575193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -2188,8 +2242,11 @@
         <f t="shared" si="4"/>
         <v>0.33783063801679125</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>0.22985781162529889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -2234,8 +2291,11 @@
         <f t="shared" si="4"/>
         <v>0.34346110588385076</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>0.36026279774472741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -2281,7 +2341,7 @@
         <v>0.34540798720852256</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -2327,7 +2387,7 @@
         <v>0.34354747181334194</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2001</v>
       </c>
@@ -2373,7 +2433,7 @@
         <v>0.34251675736132298</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -2419,7 +2479,7 @@
         <v>0.34682703042386576</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -2465,7 +2525,7 @@
         <v>0.34547129749247524</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -2511,7 +2571,7 @@
         <v>0.34545057363531728</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1997</v>
       </c>
@@ -2557,7 +2617,7 @@
         <v>0.33356552434062348</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1996</v>
       </c>
@@ -2603,7 +2663,7 @@
         <v>0.32540250771512286</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -2649,7 +2709,7 @@
         <v>0.32225413893685406</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1994</v>
       </c>

--- a/Data/Disponibel indkomst tidsserie.xlsx
+++ b/Data/Disponibel indkomst tidsserie.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\specialeJR\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB32A65-FF9E-EE4F-AEC6-5B3A4985122D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deciler" sheetId="1" r:id="rId1"/>
     <sheet name="Kvintiler" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Hele landet</t>
   </si>
@@ -80,11 +89,14 @@
   <si>
     <t>Andel</t>
   </si>
+  <si>
+    <t>Gns.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -131,6 +143,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -457,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2019</v>
       </c>
@@ -495,7 +508,7 @@
         <v>1014676.04</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -533,7 +546,7 @@
         <v>989076.69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -571,7 +584,7 @@
         <v>932469.67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -609,7 +622,7 @@
         <v>901057.78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -647,7 +660,7 @@
         <v>989875.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -685,7 +698,7 @@
         <v>964895.29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -723,7 +736,7 @@
         <v>979392.03</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -761,7 +774,7 @@
         <v>814043.78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -799,7 +812,7 @@
         <v>785761.78</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -837,7 +850,7 @@
         <v>774097.36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -875,7 +888,7 @@
         <v>769113.04</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -913,7 +926,7 @@
         <v>805127.19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -951,7 +964,7 @@
         <v>756350.65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>652465.80000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>637368.52</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>618812.27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1103,7 +1116,7 @@
         <v>561732.68000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>549140.96</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2001</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>542916.37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>548437.78</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>521117.27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1293,7 +1306,7 @@
         <v>498588.09</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1997</v>
       </c>
@@ -1331,7 +1344,7 @@
         <v>443391.36</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1996</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>402069.04</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>388957.93</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1994</v>
       </c>
@@ -1452,16 +1465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:P17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1481,1276 +1494,1383 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2" s="6">
-        <f>SUM(Deciler!C2:D2)</f>
-        <v>392009.15</v>
-      </c>
-      <c r="C2" s="6">
-        <f>SUM(Deciler!E2:F2)</f>
-        <v>612026.48</v>
-      </c>
-      <c r="D2" s="6">
-        <f>SUM(Deciler!G2:H2)</f>
-        <v>927983.33000000007</v>
-      </c>
-      <c r="E2" s="6">
-        <f>SUM(Deciler!I2:J2)</f>
-        <v>1083464.21</v>
-      </c>
-      <c r="F2" s="6">
-        <f>SUM(Deciler!K2:L2)</f>
-        <v>1698144.8</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2">
+      <c r="B2" s="7">
+        <f>SUM(Deciler!C2:D2)/2</f>
+        <v>196004.57500000001</v>
+      </c>
+      <c r="C2" s="7">
+        <f>SUM(Deciler!E2:F2)/2</f>
+        <v>306013.24</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM(Deciler!G2:H2)/2</f>
+        <v>463991.66500000004</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM(Deciler!I2:J2)/2</f>
+        <v>541732.10499999998</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM(Deciler!K2:L2)/2</f>
+        <v>849072.4</v>
+      </c>
+      <c r="G2" s="7">
+        <f>Deciler!B2</f>
+        <v>459281.68</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2">
         <f>B2/SUM($B2:$F2)</f>
         <v>8.3165059375697833E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>C2/SUM($B2:$F2)</f>
         <v>0.12984191452852398</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>D2/SUM($B2:$F2)</f>
         <v>0.19687241672575193</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>E2/SUM($B2:$F2)</f>
         <v>0.22985781162529889</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>F2/SUM($B2:$F2)</f>
         <v>0.36026279774472741</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3" s="6">
-        <f>SUM(Deciler!C3:D3)</f>
-        <v>376331.39</v>
-      </c>
-      <c r="C3" s="6">
-        <f>SUM(Deciler!E3:F3)</f>
-        <v>598579.82999999996</v>
-      </c>
-      <c r="D3" s="6">
-        <f>SUM(Deciler!G3:H3)</f>
-        <v>860006.02</v>
-      </c>
-      <c r="E3" s="6">
-        <f>SUM(Deciler!I3:J3)</f>
-        <v>1059221.1200000001</v>
-      </c>
-      <c r="F3" s="6">
-        <f>SUM(Deciler!K3:L3)</f>
-        <v>1625964.42</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3">
-        <f t="shared" ref="H3:H27" si="0">B3/SUM($B3:$F3)</f>
+      <c r="B3" s="7">
+        <f>SUM(Deciler!C3:D3)/2</f>
+        <v>188165.69500000001</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM(Deciler!E3:F3)/2</f>
+        <v>299289.91499999998</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUM(Deciler!G3:H3)/2</f>
+        <v>430003.01</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUM(Deciler!I3:J3)/2</f>
+        <v>529610.56000000006</v>
+      </c>
+      <c r="F3" s="7">
+        <f>SUM(Deciler!K3:L3)/2</f>
+        <v>812982.21</v>
+      </c>
+      <c r="G3" s="7">
+        <f>Deciler!B3</f>
+        <v>444610.5</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="0">B3/SUM($B3:$F3)</f>
         <v>8.3257263897879769E-2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I27" si="1">C3/SUM($B3:$F3)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="1">C3/SUM($B3:$F3)</f>
         <v>0.1324261546990752</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J27" si="2">D3/SUM($B3:$F3)</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K27" si="2">D3/SUM($B3:$F3)</f>
         <v>0.19026249221704644</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K27" si="3">E3/SUM($B3:$F3)</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L27" si="3">E3/SUM($B3:$F3)</f>
         <v>0.23433562720890166</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L27" si="4">F3/SUM($B3:$F3)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M27" si="4">F3/SUM($B3:$F3)</f>
         <v>0.35971846197709684</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4" s="6">
-        <f>SUM(Deciler!C4:D4)</f>
-        <v>359964.38</v>
-      </c>
-      <c r="C4" s="6">
-        <f>SUM(Deciler!E4:F4)</f>
-        <v>552962.86</v>
-      </c>
-      <c r="D4" s="6">
-        <f>SUM(Deciler!G4:H4)</f>
-        <v>783945.48</v>
-      </c>
-      <c r="E4" s="6">
-        <f>SUM(Deciler!I4:J4)</f>
-        <v>1005621.8200000001</v>
-      </c>
-      <c r="F4" s="6">
-        <f>SUM(Deciler!K4:L4)</f>
-        <v>1560966.62</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4">
+      <c r="B4" s="7">
+        <f>SUM(Deciler!C4:D4)/2</f>
+        <v>179982.19</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUM(Deciler!E4:F4)/2</f>
+        <v>276481.43</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(Deciler!G4:H4)/2</f>
+        <v>391972.74</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(Deciler!I4:J4)/2</f>
+        <v>502810.91000000003</v>
+      </c>
+      <c r="F4" s="7">
+        <f>SUM(Deciler!K4:L4)/2</f>
+        <v>780483.31</v>
+      </c>
+      <c r="G4" s="7">
+        <f>Deciler!B4</f>
+        <v>419971.79</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>8.4430083092395289E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="1"/>
         <v>0.12969811128759057</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="2"/>
         <v>0.18387536571342894</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="3"/>
         <v>0.23586982084762326</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="4"/>
         <v>0.36612661905896193</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
-      <c r="B5" s="6">
-        <f>SUM(Deciler!C5:D5)</f>
-        <v>379162.18</v>
-      </c>
-      <c r="C5" s="6">
-        <f>SUM(Deciler!E5:F5)</f>
-        <v>559357.5</v>
-      </c>
-      <c r="D5" s="6">
-        <f>SUM(Deciler!G5:H5)</f>
-        <v>750643.3</v>
-      </c>
-      <c r="E5" s="6">
-        <f>SUM(Deciler!I5:J5)</f>
-        <v>1007190.7</v>
-      </c>
-      <c r="F5" s="6">
-        <f>SUM(Deciler!K5:L5)</f>
-        <v>1500277.25</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5">
+      <c r="B5" s="7">
+        <f>SUM(Deciler!C5:D5)/2</f>
+        <v>189581.09</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(Deciler!E5:F5)/2</f>
+        <v>279678.75</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUM(Deciler!G5:H5)/2</f>
+        <v>375321.65</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUM(Deciler!I5:J5)/2</f>
+        <v>503595.35</v>
+      </c>
+      <c r="F5" s="7">
+        <f>SUM(Deciler!K5:L5)/2</f>
+        <v>750138.625</v>
+      </c>
+      <c r="G5" s="7">
+        <f>Deciler!B5</f>
+        <v>413248.63</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>9.0349183982209272E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>0.13328727479974037</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="2"/>
         <v>0.17886807596873908</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="3"/>
         <v>0.23999982767128869</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="4"/>
         <v>0.35749563757802266</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>392009.15</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>612026.48</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>927983.33000000007</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1083464.21</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1698144.8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="6">
-        <f>SUM(Deciler!C6:D6)</f>
-        <v>391120.33</v>
-      </c>
-      <c r="C6" s="6">
-        <f>SUM(Deciler!E6:F6)</f>
-        <v>567071.19999999995</v>
-      </c>
-      <c r="D6" s="6">
-        <f>SUM(Deciler!G6:H6)</f>
-        <v>847708.83000000007</v>
-      </c>
-      <c r="E6" s="6">
-        <f>SUM(Deciler!I6:J6)</f>
-        <v>1024649.63</v>
-      </c>
-      <c r="F6" s="6">
-        <f>SUM(Deciler!K6:L6)</f>
-        <v>1590174.94</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6">
+      <c r="B6" s="7">
+        <f>SUM(Deciler!C6:D6)/2</f>
+        <v>195560.16500000001</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(Deciler!E6:F6)/2</f>
+        <v>283535.59999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUM(Deciler!G6:H6)/2</f>
+        <v>423854.41500000004</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUM(Deciler!I6:J6)/2</f>
+        <v>512324.815</v>
+      </c>
+      <c r="F6" s="7">
+        <f>SUM(Deciler!K6:L6)/2</f>
+        <v>795087.47</v>
+      </c>
+      <c r="G6" s="7">
+        <f>Deciler!B6</f>
+        <v>437764.35</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>8.8474251665325854E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>0.12827561293210796</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="2"/>
         <v>0.19175787759316662</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="3"/>
         <v>0.23178316819635283</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="4"/>
         <v>0.35970908961304682</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>8.3165059375697833E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.12984191452852398</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.19687241672575193</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.22985781162529889</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.36026279774472741</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B7" s="6">
-        <f>SUM(Deciler!C7:D7)</f>
-        <v>376777.35</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(Deciler!E7:F7)</f>
-        <v>552936</v>
-      </c>
-      <c r="D7" s="6">
-        <f>SUM(Deciler!G7:H7)</f>
-        <v>806087.8</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM(Deciler!I7:J7)</f>
-        <v>977889.66999999993</v>
-      </c>
-      <c r="F7" s="6">
-        <f>SUM(Deciler!K7:L7)</f>
-        <v>1579367.65</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7">
+      <c r="B7" s="7">
+        <f>SUM(Deciler!C7:D7)/2</f>
+        <v>188388.67499999999</v>
+      </c>
+      <c r="C7" s="7">
+        <f>SUM(Deciler!E7:F7)/2</f>
+        <v>276468</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUM(Deciler!G7:H7)/2</f>
+        <v>403043.9</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(Deciler!I7:J7)/2</f>
+        <v>488944.83499999996</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUM(Deciler!K7:L7)/2</f>
+        <v>789683.82499999995</v>
+      </c>
+      <c r="G7" s="7">
+        <f>Deciler!B7</f>
+        <v>427977.58</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>8.7764318290312032E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>0.12879768674569206</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="2"/>
         <v>0.18776539048628427</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="3"/>
         <v>0.22778391602013284</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="4"/>
         <v>0.36788868845757883</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>392009.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2013</v>
       </c>
-      <c r="B8" s="6">
-        <f>SUM(Deciler!C8:D8)</f>
-        <v>361103.72</v>
-      </c>
-      <c r="C8" s="6">
-        <f>SUM(Deciler!E8:F8)</f>
-        <v>559050.53</v>
-      </c>
-      <c r="D8" s="6">
-        <f>SUM(Deciler!G8:H8)</f>
-        <v>780603.54</v>
-      </c>
-      <c r="E8" s="6">
-        <f>SUM(Deciler!I8:J8)</f>
-        <v>984654.21</v>
-      </c>
-      <c r="F8" s="6">
-        <f>SUM(Deciler!K8:L8)</f>
-        <v>1558911.4500000002</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8">
+      <c r="B8" s="7">
+        <f>SUM(Deciler!C8:D8)/2</f>
+        <v>180551.86</v>
+      </c>
+      <c r="C8" s="7">
+        <f>SUM(Deciler!E8:F8)/2</f>
+        <v>279525.26500000001</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUM(Deciler!G8:H8)/2</f>
+        <v>390301.77</v>
+      </c>
+      <c r="E8" s="7">
+        <f>SUM(Deciler!I8:J8)/2</f>
+        <v>492327.10499999998</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUM(Deciler!K8:L8)/2</f>
+        <v>779455.72500000009</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Deciler!B8</f>
+        <v>419308.88</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>8.5079217984670788E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>0.13171723045754205</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="2"/>
         <v>0.18391707163599891</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="3"/>
         <v>0.23199320730374587</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="4"/>
         <v>0.36729327261804234</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>612026.48</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" s="6">
-        <f>SUM(Deciler!C9:D9)</f>
-        <v>337262.99</v>
-      </c>
-      <c r="C9" s="6">
-        <f>SUM(Deciler!E9:F9)</f>
-        <v>525419.40999999992</v>
-      </c>
-      <c r="D9" s="6">
-        <f>SUM(Deciler!G9:H9)</f>
-        <v>737736.64999999991</v>
-      </c>
-      <c r="E9" s="6">
-        <f>SUM(Deciler!I9:J9)</f>
-        <v>913900.46</v>
-      </c>
-      <c r="F9" s="6">
-        <f>SUM(Deciler!K9:L9)</f>
-        <v>1362091.25</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9">
+      <c r="B9" s="7">
+        <f>SUM(Deciler!C9:D9)/2</f>
+        <v>168631.495</v>
+      </c>
+      <c r="C9" s="7">
+        <f>SUM(Deciler!E9:F9)/2</f>
+        <v>262709.70499999996</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(Deciler!G9:H9)/2</f>
+        <v>368868.32499999995</v>
+      </c>
+      <c r="E9" s="7">
+        <f>SUM(Deciler!I9:J9)/2</f>
+        <v>456950.23</v>
+      </c>
+      <c r="F9" s="7">
+        <f>SUM(Deciler!K9:L9)/2</f>
+        <v>681045.625</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Deciler!B9</f>
+        <v>387035.24</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>8.7003935052538145E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="1"/>
         <v>0.13554275914763994</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>0.19031436441477631</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="3"/>
         <v>0.23575944774232338</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="4"/>
         <v>0.35137949364272225</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>927983.33000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2011</v>
       </c>
-      <c r="B10" s="6">
-        <f>SUM(Deciler!C10:D10)</f>
-        <v>347993.62</v>
-      </c>
-      <c r="C10" s="6">
-        <f>SUM(Deciler!E10:F10)</f>
-        <v>515566.67</v>
-      </c>
-      <c r="D10" s="6">
-        <f>SUM(Deciler!G10:H10)</f>
-        <v>734409.53</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(Deciler!I10:J10)</f>
-        <v>894354.86</v>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(Deciler!K10:L10)</f>
-        <v>1310199.46</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10">
+      <c r="B10" s="7">
+        <f>SUM(Deciler!C10:D10)/2</f>
+        <v>173996.81</v>
+      </c>
+      <c r="C10" s="7">
+        <f>SUM(Deciler!E10:F10)/2</f>
+        <v>257783.33499999999</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(Deciler!G10:H10)/2</f>
+        <v>367204.76500000001</v>
+      </c>
+      <c r="E10" s="7">
+        <f>SUM(Deciler!I10:J10)/2</f>
+        <v>447177.43</v>
+      </c>
+      <c r="F10" s="7">
+        <f>SUM(Deciler!K10:L10)/2</f>
+        <v>655099.73</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Deciler!B10</f>
+        <v>381345.8</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>9.1516478840815457E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>0.13558537724365372</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="2"/>
         <v>0.19313737479652135</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="3"/>
         <v>0.23520031091768426</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="4"/>
         <v>0.34456045820132514</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1083464.21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
-      <c r="B11" s="6">
-        <f>SUM(Deciler!C11:D11)</f>
-        <v>330026.07</v>
-      </c>
-      <c r="C11" s="6">
-        <f>SUM(Deciler!E11:F11)</f>
-        <v>513082.18000000005</v>
-      </c>
-      <c r="D11" s="6">
-        <f>SUM(Deciler!G11:H11)</f>
-        <v>718697.1399999999</v>
-      </c>
-      <c r="E11" s="6">
-        <f>SUM(Deciler!I11:J11)</f>
-        <v>901143.25</v>
-      </c>
-      <c r="F11" s="6">
-        <f>SUM(Deciler!K11:L11)</f>
-        <v>1281035.26</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11">
+      <c r="B11" s="7">
+        <f>SUM(Deciler!C11:D11)/2</f>
+        <v>165013.035</v>
+      </c>
+      <c r="C11" s="7">
+        <f>SUM(Deciler!E11:F11)/2</f>
+        <v>256541.09000000003</v>
+      </c>
+      <c r="D11" s="7">
+        <f>SUM(Deciler!G11:H11)/2</f>
+        <v>359348.56999999995</v>
+      </c>
+      <c r="E11" s="7">
+        <f>SUM(Deciler!I11:J11)/2</f>
+        <v>450571.625</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SUM(Deciler!K11:L11)/2</f>
+        <v>640517.63</v>
+      </c>
+      <c r="G11" s="7">
+        <f>Deciler!B11</f>
+        <v>374325.19</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>8.8148367838868119E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>0.13704176986444844</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="2"/>
         <v>0.19196053166788457</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="3"/>
         <v>0.24069100564241211</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="4"/>
         <v>0.34215832498638687</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1698144.8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="6">
-        <f>SUM(Deciler!C12:D12)</f>
-        <v>291268.19</v>
-      </c>
-      <c r="C12" s="6">
-        <f>SUM(Deciler!E12:F12)</f>
-        <v>495171.1</v>
-      </c>
-      <c r="D12" s="6">
-        <f>SUM(Deciler!G12:H12)</f>
-        <v>699626.76</v>
-      </c>
-      <c r="E12" s="6">
-        <f>SUM(Deciler!I12:J12)</f>
-        <v>859161.8</v>
-      </c>
-      <c r="F12" s="6">
-        <f>SUM(Deciler!K12:L12)</f>
-        <v>1244165.5900000001</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12">
+      <c r="B12" s="7">
+        <f>SUM(Deciler!C12:D12)/2</f>
+        <v>145634.095</v>
+      </c>
+      <c r="C12" s="7">
+        <f>SUM(Deciler!E12:F12)/2</f>
+        <v>247585.55</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SUM(Deciler!G12:H12)/2</f>
+        <v>349813.38</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUM(Deciler!I12:J12)/2</f>
+        <v>429580.9</v>
+      </c>
+      <c r="F12" s="7">
+        <f>SUM(Deciler!K12:L12)/2</f>
+        <v>622082.79500000004</v>
+      </c>
+      <c r="G12" s="7">
+        <f>Deciler!B12</f>
+        <v>359117.08</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>8.1146910994521676E-2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="1"/>
         <v>0.13795397698169301</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="2"/>
         <v>0.1949150383469804</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="3"/>
         <v>0.23936127770936139</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="4"/>
         <v>0.34662279596744344</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
-      <c r="B13" s="6">
-        <f>SUM(Deciler!C13:D13)</f>
-        <v>306670.95999999996</v>
-      </c>
-      <c r="C13" s="6">
-        <f>SUM(Deciler!E13:F13)</f>
-        <v>521166.77</v>
-      </c>
-      <c r="D13" s="6">
-        <f>SUM(Deciler!G13:H13)</f>
-        <v>690998.21</v>
-      </c>
-      <c r="E13" s="6">
-        <f>SUM(Deciler!I13:J13)</f>
-        <v>859090.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f>SUM(Deciler!K13:L13)</f>
-        <v>1295240.98</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13">
+      <c r="B13" s="7">
+        <f>SUM(Deciler!C13:D13)/2</f>
+        <v>153335.47999999998</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUM(Deciler!E13:F13)/2</f>
+        <v>260583.38500000001</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUM(Deciler!G13:H13)/2</f>
+        <v>345499.10499999998</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(Deciler!I13:J13)/2</f>
+        <v>429545.25</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(Deciler!K13:L13)/2</f>
+        <v>647620.49</v>
+      </c>
+      <c r="G13" s="7">
+        <f>Deciler!B13</f>
+        <v>369397.99</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>8.3489513255020645E-2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="1"/>
         <v>0.14188483954265282</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="2"/>
         <v>0.18812053222447453</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="3"/>
         <v>0.2338827507078346</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="4"/>
         <v>0.35262236427001742</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>8.3165059375697833E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2007</v>
       </c>
-      <c r="B14" s="6">
-        <f>SUM(Deciler!C14:D14)</f>
-        <v>255270.18000000002</v>
-      </c>
-      <c r="C14" s="6">
-        <f>SUM(Deciler!E14:F14)</f>
-        <v>504285.57</v>
-      </c>
-      <c r="D14" s="6">
-        <f>SUM(Deciler!G14:H14)</f>
-        <v>672902.09</v>
-      </c>
-      <c r="E14" s="6">
-        <f>SUM(Deciler!I14:J14)</f>
-        <v>789494.01</v>
-      </c>
-      <c r="F14" s="6">
-        <f>SUM(Deciler!K14:L14)</f>
-        <v>1248173.0900000001</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14">
+      <c r="B14" s="7">
+        <f>SUM(Deciler!C14:D14)/2</f>
+        <v>127635.09000000001</v>
+      </c>
+      <c r="C14" s="7">
+        <f>SUM(Deciler!E14:F14)/2</f>
+        <v>252142.785</v>
+      </c>
+      <c r="D14" s="7">
+        <f>SUM(Deciler!G14:H14)/2</f>
+        <v>336451.04499999998</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUM(Deciler!I14:J14)/2</f>
+        <v>394747.005</v>
+      </c>
+      <c r="F14" s="7">
+        <f>SUM(Deciler!K14:L14)/2</f>
+        <v>624086.54500000004</v>
+      </c>
+      <c r="G14" s="7">
+        <f>Deciler!B14</f>
+        <v>348412.84</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>7.3562244706958616E-2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>0.14532202117195242</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="2"/>
         <v>0.193912928679738</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="3"/>
         <v>0.22751169587571107</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="4"/>
         <v>0.3596911095656401</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.12984191452852398</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
-      <c r="B15" s="6">
-        <f>SUM(Deciler!C15:D15)</f>
-        <v>312623.45</v>
-      </c>
-      <c r="C15" s="6">
-        <f>SUM(Deciler!E15:F15)</f>
-        <v>459488.77999999997</v>
-      </c>
-      <c r="D15" s="6">
-        <f>SUM(Deciler!G15:H15)</f>
-        <v>659109.15999999992</v>
-      </c>
-      <c r="E15" s="6">
-        <f>SUM(Deciler!I15:J15)</f>
-        <v>747192.23</v>
-      </c>
-      <c r="F15" s="6">
-        <f>SUM(Deciler!K15:L15)</f>
-        <v>1106927.6800000002</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15">
+      <c r="B15" s="7">
+        <f>SUM(Deciler!C15:D15)/2</f>
+        <v>156311.72500000001</v>
+      </c>
+      <c r="C15" s="7">
+        <f>SUM(Deciler!E15:F15)/2</f>
+        <v>229744.38999999998</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUM(Deciler!G15:H15)/2</f>
+        <v>329554.57999999996</v>
+      </c>
+      <c r="E15" s="7">
+        <f>SUM(Deciler!I15:J15)/2</f>
+        <v>373596.11499999999</v>
+      </c>
+      <c r="F15" s="7">
+        <f>SUM(Deciler!K15:L15)/2</f>
+        <v>553463.84000000008</v>
+      </c>
+      <c r="G15" s="7">
+        <f>Deciler!B15</f>
+        <v>333822.03000000003</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>9.51570693735838E-2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="1"/>
         <v>0.13986028787937493</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="2"/>
         <v>0.2006212139968532</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="3"/>
         <v>0.22743214837374731</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="4"/>
         <v>0.33692928037644065</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.19687241672575193</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
-      <c r="B16" s="6">
-        <f>SUM(Deciler!C16:D16)</f>
-        <v>305098.57</v>
-      </c>
-      <c r="C16" s="6">
-        <f>SUM(Deciler!E16:F16)</f>
-        <v>454439.88</v>
-      </c>
-      <c r="D16" s="6">
-        <f>SUM(Deciler!G16:H16)</f>
-        <v>617157.43999999994</v>
-      </c>
-      <c r="E16" s="6">
-        <f>SUM(Deciler!I16:J16)</f>
-        <v>738346.5</v>
-      </c>
-      <c r="F16" s="6">
-        <f>SUM(Deciler!K16:L16)</f>
-        <v>1079068.53</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16">
+      <c r="B16" s="7">
+        <f>SUM(Deciler!C16:D16)/2</f>
+        <v>152549.285</v>
+      </c>
+      <c r="C16" s="7">
+        <f>SUM(Deciler!E16:F16)/2</f>
+        <v>227219.94</v>
+      </c>
+      <c r="D16" s="7">
+        <f>SUM(Deciler!G16:H16)/2</f>
+        <v>308578.71999999997</v>
+      </c>
+      <c r="E16" s="7">
+        <f>SUM(Deciler!I16:J16)/2</f>
+        <v>369173.25</v>
+      </c>
+      <c r="F16" s="7">
+        <f>SUM(Deciler!K16:L16)/2</f>
+        <v>539534.26500000001</v>
+      </c>
+      <c r="G16" s="7">
+        <f>Deciler!B16</f>
+        <v>321023.71999999997</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>9.5519090489193159E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>0.14227429522078089</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="2"/>
         <v>0.19321728501526175</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="3"/>
         <v>0.23115869125797298</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="4"/>
         <v>0.33783063801679125</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.22985781162529889</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2004</v>
       </c>
-      <c r="B17" s="6">
-        <f>SUM(Deciler!C17:D17)</f>
-        <v>290135.71000000002</v>
-      </c>
-      <c r="C17" s="6">
-        <f>SUM(Deciler!E17:F17)</f>
-        <v>427678.11</v>
-      </c>
-      <c r="D17" s="6">
-        <f>SUM(Deciler!G17:H17)</f>
-        <v>566142.53</v>
-      </c>
-      <c r="E17" s="6">
-        <f>SUM(Deciler!I17:J17)</f>
-        <v>660707.6</v>
-      </c>
-      <c r="F17" s="6">
-        <f>SUM(Deciler!K17:L17)</f>
-        <v>1017329.5700000001</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17">
+      <c r="B17" s="7">
+        <f>SUM(Deciler!C17:D17)/2</f>
+        <v>145067.85500000001</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(Deciler!E17:F17)/2</f>
+        <v>213839.05499999999</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUM(Deciler!G17:H17)/2</f>
+        <v>283071.26500000001</v>
+      </c>
+      <c r="E17" s="7">
+        <f>SUM(Deciler!I17:J17)/2</f>
+        <v>330353.8</v>
+      </c>
+      <c r="F17" s="7">
+        <f>SUM(Deciler!K17:L17)/2</f>
+        <v>508664.78500000003</v>
+      </c>
+      <c r="G17" s="7">
+        <f>Deciler!B17</f>
+        <v>297393.11</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>9.7952851024468129E-2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>0.1443886041992421</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="2"/>
         <v>0.19113564097196267</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="3"/>
         <v>0.22306179792047617</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="4"/>
         <v>0.34346110588385076</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.36026279774472741</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2003</v>
       </c>
-      <c r="B18" s="6">
-        <f>SUM(Deciler!C18:D18)</f>
-        <v>243054.57</v>
-      </c>
-      <c r="C18" s="6">
-        <f>SUM(Deciler!E18:F18)</f>
-        <v>383518.58999999997</v>
-      </c>
-      <c r="D18" s="6">
-        <f>SUM(Deciler!G18:H18)</f>
-        <v>505254.36</v>
-      </c>
-      <c r="E18" s="6">
-        <f>SUM(Deciler!I18:J18)</f>
-        <v>635110.9</v>
-      </c>
-      <c r="F18" s="6">
-        <f>SUM(Deciler!K18:L18)</f>
-        <v>932358.83000000007</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18">
+      <c r="B18" s="7">
+        <f>SUM(Deciler!C18:D18)/2</f>
+        <v>121527.285</v>
+      </c>
+      <c r="C18" s="7">
+        <f>SUM(Deciler!E18:F18)/2</f>
+        <v>191759.29499999998</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUM(Deciler!G18:H18)/2</f>
+        <v>252627.18</v>
+      </c>
+      <c r="E18" s="7">
+        <f>SUM(Deciler!I18:J18)/2</f>
+        <v>317555.45</v>
+      </c>
+      <c r="F18" s="7">
+        <f>SUM(Deciler!K18:L18)/2</f>
+        <v>466179.41500000004</v>
+      </c>
+      <c r="G18" s="7">
+        <f>Deciler!B18</f>
+        <v>268801.44</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>9.0043647471578017E-2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>0.14208090272384782</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="2"/>
         <v>0.18717996322931829</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="3"/>
         <v>0.23528749936673332</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="4"/>
         <v>0.34540798720852256</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2002</v>
       </c>
-      <c r="B19" s="6">
-        <f>SUM(Deciler!C19:D19)</f>
-        <v>238840.02</v>
-      </c>
-      <c r="C19" s="6">
-        <f>SUM(Deciler!E19:F19)</f>
-        <v>372594.11</v>
-      </c>
-      <c r="D19" s="6">
-        <f>SUM(Deciler!G19:H19)</f>
-        <v>507398.27999999997</v>
-      </c>
-      <c r="E19" s="6">
-        <f>SUM(Deciler!I19:J19)</f>
-        <v>612645.31000000006</v>
-      </c>
-      <c r="F19" s="6">
-        <f>SUM(Deciler!K19:L19)</f>
-        <v>906150.51</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19">
+      <c r="B19" s="7">
+        <f>SUM(Deciler!C19:D19)/2</f>
+        <v>119420.01</v>
+      </c>
+      <c r="C19" s="7">
+        <f>SUM(Deciler!E19:F19)/2</f>
+        <v>186297.05499999999</v>
+      </c>
+      <c r="D19" s="7">
+        <f>SUM(Deciler!G19:H19)/2</f>
+        <v>253699.13999999998</v>
+      </c>
+      <c r="E19" s="7">
+        <f>SUM(Deciler!I19:J19)/2</f>
+        <v>306322.65500000003</v>
+      </c>
+      <c r="F19" s="7">
+        <f>SUM(Deciler!K19:L19)/2</f>
+        <v>453075.255</v>
+      </c>
+      <c r="G19" s="7">
+        <f>Deciler!B19</f>
+        <v>262693.32</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>9.055105540783509E-2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>0.14126104117410057</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="2"/>
         <v>0.19236914218195184</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="3"/>
         <v>0.23227128942277056</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="4"/>
         <v>0.34354747181334194</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2001</v>
       </c>
-      <c r="B20" s="6">
-        <f>SUM(Deciler!C20:D20)</f>
-        <v>244941.79</v>
-      </c>
-      <c r="C20" s="6">
-        <f>SUM(Deciler!E20:F20)</f>
-        <v>370683.76</v>
-      </c>
-      <c r="D20" s="6">
-        <f>SUM(Deciler!G20:H20)</f>
-        <v>495659.45999999996</v>
-      </c>
-      <c r="E20" s="6">
-        <f>SUM(Deciler!I20:J20)</f>
-        <v>615546.29</v>
-      </c>
-      <c r="F20" s="6">
-        <f>SUM(Deciler!K20:L20)</f>
-        <v>899595.03</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20">
+      <c r="B20" s="7">
+        <f>SUM(Deciler!C20:D20)/2</f>
+        <v>122470.895</v>
+      </c>
+      <c r="C20" s="7">
+        <f>SUM(Deciler!E20:F20)/2</f>
+        <v>185341.88</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUM(Deciler!G20:H20)/2</f>
+        <v>247829.72999999998</v>
+      </c>
+      <c r="E20" s="7">
+        <f>SUM(Deciler!I20:J20)/2</f>
+        <v>307773.14500000002</v>
+      </c>
+      <c r="F20" s="7">
+        <f>SUM(Deciler!K20:L20)/2</f>
+        <v>449797.51500000001</v>
+      </c>
+      <c r="G20" s="7">
+        <f>Deciler!B20</f>
+        <v>262585.51</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>9.3260483723524051E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>0.14113617266394066</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="2"/>
         <v>0.1887201077518896</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="3"/>
         <v>0.23436647849932271</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="4"/>
         <v>0.34251675736132298</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2000</v>
       </c>
-      <c r="B21" s="6">
-        <f>SUM(Deciler!C21:D21)</f>
-        <v>257555.02000000002</v>
-      </c>
-      <c r="C21" s="6">
-        <f>SUM(Deciler!E21:F21)</f>
-        <v>379811.65</v>
-      </c>
-      <c r="D21" s="6">
-        <f>SUM(Deciler!G21:H21)</f>
-        <v>464830.9</v>
-      </c>
-      <c r="E21" s="6">
-        <f>SUM(Deciler!I21:J21)</f>
-        <v>589598.09000000008</v>
-      </c>
-      <c r="F21" s="6">
-        <f>SUM(Deciler!K21:L21)</f>
-        <v>898323.25</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21">
+      <c r="B21" s="7">
+        <f>SUM(Deciler!C21:D21)/2</f>
+        <v>128777.51000000001</v>
+      </c>
+      <c r="C21" s="7">
+        <f>SUM(Deciler!E21:F21)/2</f>
+        <v>189905.82500000001</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUM(Deciler!G21:H21)/2</f>
+        <v>232415.45</v>
+      </c>
+      <c r="E21" s="7">
+        <f>SUM(Deciler!I21:J21)/2</f>
+        <v>294799.04500000004</v>
+      </c>
+      <c r="F21" s="7">
+        <f>SUM(Deciler!K21:L21)/2</f>
+        <v>449161.625</v>
+      </c>
+      <c r="G21" s="7">
+        <f>Deciler!B21</f>
+        <v>259588.84</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>9.9437527368193307E-2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>0.14663869235254531</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="2"/>
         <v>0.17946315059334478</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="3"/>
         <v>0.2276335992620509</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="4"/>
         <v>0.34682703042386576</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1999</v>
       </c>
-      <c r="B22" s="6">
-        <f>SUM(Deciler!C22:D22)</f>
-        <v>260181.23</v>
-      </c>
-      <c r="C22" s="6">
-        <f>SUM(Deciler!E22:F22)</f>
-        <v>357168.73</v>
-      </c>
-      <c r="D22" s="6">
-        <f>SUM(Deciler!G22:H22)</f>
-        <v>451840.44</v>
-      </c>
-      <c r="E22" s="6">
-        <f>SUM(Deciler!I22:J22)</f>
-        <v>549858.01</v>
-      </c>
-      <c r="F22" s="6">
-        <f>SUM(Deciler!K22:L22)</f>
-        <v>854561.08000000007</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22">
+      <c r="B22" s="7">
+        <f>SUM(Deciler!C22:D22)/2</f>
+        <v>130090.61500000001</v>
+      </c>
+      <c r="C22" s="7">
+        <f>SUM(Deciler!E22:F22)/2</f>
+        <v>178584.36499999999</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUM(Deciler!G22:H22)/2</f>
+        <v>225920.22</v>
+      </c>
+      <c r="E22" s="7">
+        <f>SUM(Deciler!I22:J22)/2</f>
+        <v>274929.005</v>
+      </c>
+      <c r="F22" s="7">
+        <f>SUM(Deciler!K22:L22)/2</f>
+        <v>427280.54000000004</v>
+      </c>
+      <c r="G22" s="7">
+        <f>Deciler!B22</f>
+        <v>249759.32</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>0.10518282334047804</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>0.14439172045705564</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="2"/>
         <v>0.18266441886912391</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="3"/>
         <v>0.22228973984086711</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="4"/>
         <v>0.34547129749247524</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B23" s="6">
-        <f>SUM(Deciler!C23:D23)</f>
-        <v>262743.42</v>
-      </c>
-      <c r="C23" s="6">
-        <f>SUM(Deciler!E23:F23)</f>
-        <v>346867.3</v>
-      </c>
-      <c r="D23" s="6">
-        <f>SUM(Deciler!G23:H23)</f>
-        <v>441045.13</v>
-      </c>
-      <c r="E23" s="6">
-        <f>SUM(Deciler!I23:J23)</f>
-        <v>531019.19999999995</v>
-      </c>
-      <c r="F23" s="6">
-        <f>SUM(Deciler!K23:L23)</f>
-        <v>834758.28</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23">
+      <c r="B23" s="7">
+        <f>SUM(Deciler!C23:D23)/2</f>
+        <v>131371.71</v>
+      </c>
+      <c r="C23" s="7">
+        <f>SUM(Deciler!E23:F23)/2</f>
+        <v>173433.65</v>
+      </c>
+      <c r="D23" s="7">
+        <f>SUM(Deciler!G23:H23)/2</f>
+        <v>220522.565</v>
+      </c>
+      <c r="E23" s="7">
+        <f>SUM(Deciler!I23:J23)/2</f>
+        <v>265509.59999999998</v>
+      </c>
+      <c r="F23" s="7">
+        <f>SUM(Deciler!K23:L23)/2</f>
+        <v>417379.14</v>
+      </c>
+      <c r="G23" s="7">
+        <f>Deciler!B23</f>
+        <v>244767.46</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>0.10873191357611342</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>0.14354515628204814</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="2"/>
         <v>0.18251905588473238</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="3"/>
         <v>0.21975330062178869</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="4"/>
         <v>0.34545057363531728</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1997</v>
       </c>
-      <c r="B24" s="6">
-        <f>SUM(Deciler!C24:D24)</f>
-        <v>239240.21000000002</v>
-      </c>
-      <c r="C24" s="6">
-        <f>SUM(Deciler!E24:F24)</f>
-        <v>332251.87</v>
-      </c>
-      <c r="D24" s="6">
-        <f>SUM(Deciler!G24:H24)</f>
-        <v>420340.68</v>
-      </c>
-      <c r="E24" s="6">
-        <f>SUM(Deciler!I24:J24)</f>
-        <v>502019.89</v>
-      </c>
-      <c r="F24" s="6">
-        <f>SUM(Deciler!K24:L24)</f>
-        <v>747707.03</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24">
+      <c r="B24" s="7">
+        <f>SUM(Deciler!C24:D24)/2</f>
+        <v>119620.10500000001</v>
+      </c>
+      <c r="C24" s="7">
+        <f>SUM(Deciler!E24:F24)/2</f>
+        <v>166125.935</v>
+      </c>
+      <c r="D24" s="7">
+        <f>SUM(Deciler!G24:H24)/2</f>
+        <v>210170.34</v>
+      </c>
+      <c r="E24" s="7">
+        <f>SUM(Deciler!I24:J24)/2</f>
+        <v>251009.94500000001</v>
+      </c>
+      <c r="F24" s="7">
+        <f>SUM(Deciler!K24:L24)/2</f>
+        <v>373853.51500000001</v>
+      </c>
+      <c r="G24" s="7">
+        <f>Deciler!B24</f>
+        <v>227767.15</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>0.10672935105613608</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>0.14822352175785034</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="2"/>
         <v>0.18752152072970907</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" si="3"/>
         <v>0.22396008211568119</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="4"/>
         <v>0.33356552434062348</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1996</v>
       </c>
-      <c r="B25" s="6">
-        <f>SUM(Deciler!C25:D25)</f>
-        <v>230015.51</v>
-      </c>
-      <c r="C25" s="6">
-        <f>SUM(Deciler!E25:F25)</f>
-        <v>333223.48</v>
-      </c>
-      <c r="D25" s="6">
-        <f>SUM(Deciler!G25:H25)</f>
-        <v>401320.92000000004</v>
-      </c>
-      <c r="E25" s="6">
-        <f>SUM(Deciler!I25:J25)</f>
-        <v>474876.17</v>
-      </c>
-      <c r="F25" s="6">
-        <f>SUM(Deciler!K25:L25)</f>
-        <v>694334.2</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25">
+      <c r="B25" s="7">
+        <f>SUM(Deciler!C25:D25)/2</f>
+        <v>115007.755</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(Deciler!E25:F25)/2</f>
+        <v>166611.74</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(Deciler!G25:H25)/2</f>
+        <v>200660.46000000002</v>
+      </c>
+      <c r="E25" s="7">
+        <f>SUM(Deciler!I25:J25)/2</f>
+        <v>237438.08499999999</v>
+      </c>
+      <c r="F25" s="7">
+        <f>SUM(Deciler!K25:L25)/2</f>
+        <v>347167.1</v>
+      </c>
+      <c r="G25" s="7">
+        <f>Deciler!B25</f>
+        <v>216012.44</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>0.1077976913241101</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>0.15616652041849602</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="2"/>
         <v>0.18808065880456448</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>0.22255262173770643</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="4"/>
         <v>0.32540250771512286</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1995</v>
       </c>
-      <c r="B26" s="6">
-        <f>SUM(Deciler!C26:D26)</f>
-        <v>231399.81</v>
-      </c>
-      <c r="C26" s="6">
-        <f>SUM(Deciler!E26:F26)</f>
-        <v>312096.92000000004</v>
-      </c>
-      <c r="D26" s="6">
-        <f>SUM(Deciler!G26:H26)</f>
-        <v>395188.42</v>
-      </c>
-      <c r="E26" s="6">
-        <f>SUM(Deciler!I26:J26)</f>
-        <v>459503.05</v>
-      </c>
-      <c r="F26" s="6">
-        <f>SUM(Deciler!K26:L26)</f>
-        <v>664809.57000000007</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26">
+      <c r="B26" s="7">
+        <f>SUM(Deciler!C26:D26)/2</f>
+        <v>115699.905</v>
+      </c>
+      <c r="C26" s="7">
+        <f>SUM(Deciler!E26:F26)/2</f>
+        <v>156048.46000000002</v>
+      </c>
+      <c r="D26" s="7">
+        <f>SUM(Deciler!G26:H26)/2</f>
+        <v>197594.21</v>
+      </c>
+      <c r="E26" s="7">
+        <f>SUM(Deciler!I26:J26)/2</f>
+        <v>229751.52499999999</v>
+      </c>
+      <c r="F26" s="7">
+        <f>SUM(Deciler!K26:L26)/2</f>
+        <v>332404.78500000003</v>
+      </c>
+      <c r="G26" s="7">
+        <f>Deciler!B26</f>
+        <v>209328.22</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>0.11216677660296259</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>0.15128320764011299</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="2"/>
         <v>0.19156027492942951</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" si="3"/>
         <v>0.2227356018906409</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="4"/>
         <v>0.32225413893685406</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1994</v>
       </c>
-      <c r="B27" s="6">
-        <f>SUM(Deciler!C27:D27)</f>
-        <v>187038.85</v>
-      </c>
-      <c r="C27" s="6">
-        <f>SUM(Deciler!E27:F27)</f>
-        <v>296322.34999999998</v>
-      </c>
-      <c r="D27" s="6">
-        <f>SUM(Deciler!G27:H27)</f>
-        <v>381539.43999999994</v>
-      </c>
-      <c r="E27" s="6">
-        <f>SUM(Deciler!I27:J27)</f>
-        <v>447990.75</v>
-      </c>
-      <c r="F27" s="6">
-        <f>SUM(Deciler!K27:L27)</f>
-        <v>633487.44999999995</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27">
+      <c r="B27" s="7">
+        <f>SUM(Deciler!C27:D27)/2</f>
+        <v>93519.425000000003</v>
+      </c>
+      <c r="C27" s="7">
+        <f>SUM(Deciler!E27:F27)/2</f>
+        <v>148161.17499999999</v>
+      </c>
+      <c r="D27" s="7">
+        <f>SUM(Deciler!G27:H27)/2</f>
+        <v>190769.71999999997</v>
+      </c>
+      <c r="E27" s="7">
+        <f>SUM(Deciler!I27:J27)/2</f>
+        <v>223995.375</v>
+      </c>
+      <c r="F27" s="7">
+        <f>SUM(Deciler!K27:L27)/2</f>
+        <v>316743.72499999998</v>
+      </c>
+      <c r="G27" s="7">
+        <f>Deciler!B27</f>
+        <v>196761.19</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>9.6095809385186304E-2</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>0.15224289532452995</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="2"/>
         <v>0.19602527121595711</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="3"/>
         <v>0.23016626609031571</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="4"/>
         <v>0.32546975798401095</v>
       </c>

--- a/Data/Disponibel indkomst tidsserie.xlsx
+++ b/Data/Disponibel indkomst tidsserie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB32A65-FF9E-EE4F-AEC6-5B3A4985122D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF8A4C-DAAF-1E46-9E85-1ED814597EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Deciler" sheetId="1" r:id="rId1"/>
     <sheet name="Kvintiler" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kvintiler!$A$1:$G$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1469,7 +1472,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1516,203 +1519,203 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2019</v>
+      <c r="A2">
+        <v>1994</v>
       </c>
       <c r="B2" s="7">
-        <f>SUM(Deciler!C2:D2)/2</f>
-        <v>196004.57500000001</v>
+        <f>SUM(Deciler!C27:D27)/2</f>
+        <v>93519.425000000003</v>
       </c>
       <c r="C2" s="7">
-        <f>SUM(Deciler!E2:F2)/2</f>
-        <v>306013.24</v>
+        <f>SUM(Deciler!E27:F27)/2</f>
+        <v>148161.17499999999</v>
       </c>
       <c r="D2" s="7">
-        <f>SUM(Deciler!G2:H2)/2</f>
-        <v>463991.66500000004</v>
+        <f>SUM(Deciler!G27:H27)/2</f>
+        <v>190769.71999999997</v>
       </c>
       <c r="E2" s="7">
-        <f>SUM(Deciler!I2:J2)/2</f>
-        <v>541732.10499999998</v>
+        <f>SUM(Deciler!I27:J27)/2</f>
+        <v>223995.375</v>
       </c>
       <c r="F2" s="7">
-        <f>SUM(Deciler!K2:L2)/2</f>
-        <v>849072.4</v>
+        <f>SUM(Deciler!K27:L27)/2</f>
+        <v>316743.72499999998</v>
       </c>
       <c r="G2" s="7">
-        <f>Deciler!B2</f>
-        <v>459281.68</v>
+        <f>Deciler!B27</f>
+        <v>196761.19</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2">
         <f>B2/SUM($B2:$F2)</f>
-        <v>8.3165059375697833E-2</v>
+        <v>9.6095809385186304E-2</v>
       </c>
       <c r="J2">
         <f>C2/SUM($B2:$F2)</f>
-        <v>0.12984191452852398</v>
+        <v>0.15224289532452995</v>
       </c>
       <c r="K2">
         <f>D2/SUM($B2:$F2)</f>
-        <v>0.19687241672575193</v>
+        <v>0.19602527121595711</v>
       </c>
       <c r="L2">
         <f>E2/SUM($B2:$F2)</f>
-        <v>0.22985781162529889</v>
+        <v>0.23016626609031571</v>
       </c>
       <c r="M2">
         <f>F2/SUM($B2:$F2)</f>
-        <v>0.36026279774472741</v>
+        <v>0.32546975798401095</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM(Deciler!C3:D3)/2</f>
-        <v>188165.69500000001</v>
+        <f>SUM(Deciler!C26:D26)/2</f>
+        <v>115699.905</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM(Deciler!E3:F3)/2</f>
-        <v>299289.91499999998</v>
+        <f>SUM(Deciler!E26:F26)/2</f>
+        <v>156048.46000000002</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(Deciler!G3:H3)/2</f>
-        <v>430003.01</v>
+        <f>SUM(Deciler!G26:H26)/2</f>
+        <v>197594.21</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM(Deciler!I3:J3)/2</f>
-        <v>529610.56000000006</v>
+        <f>SUM(Deciler!I26:J26)/2</f>
+        <v>229751.52499999999</v>
       </c>
       <c r="F3" s="7">
-        <f>SUM(Deciler!K3:L3)/2</f>
-        <v>812982.21</v>
+        <f>SUM(Deciler!K26:L26)/2</f>
+        <v>332404.78500000003</v>
       </c>
       <c r="G3" s="7">
-        <f>Deciler!B3</f>
-        <v>444610.5</v>
+        <f>Deciler!B26</f>
+        <v>209328.22</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3">
         <f t="shared" ref="I3:I27" si="0">B3/SUM($B3:$F3)</f>
-        <v>8.3257263897879769E-2</v>
+        <v>0.11216677660296259</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J27" si="1">C3/SUM($B3:$F3)</f>
-        <v>0.1324261546990752</v>
+        <v>0.15128320764011299</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K27" si="2">D3/SUM($B3:$F3)</f>
-        <v>0.19026249221704644</v>
+        <v>0.19156027492942951</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L27" si="3">E3/SUM($B3:$F3)</f>
-        <v>0.23433562720890166</v>
+        <v>0.2227356018906409</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M27" si="4">F3/SUM($B3:$F3)</f>
-        <v>0.35971846197709684</v>
+        <v>0.32225413893685406</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="B4" s="7">
-        <f>SUM(Deciler!C4:D4)/2</f>
-        <v>179982.19</v>
+        <f>SUM(Deciler!C25:D25)/2</f>
+        <v>115007.755</v>
       </c>
       <c r="C4" s="7">
-        <f>SUM(Deciler!E4:F4)/2</f>
-        <v>276481.43</v>
+        <f>SUM(Deciler!E25:F25)/2</f>
+        <v>166611.74</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(Deciler!G4:H4)/2</f>
-        <v>391972.74</v>
+        <f>SUM(Deciler!G25:H25)/2</f>
+        <v>200660.46000000002</v>
       </c>
       <c r="E4" s="7">
-        <f>SUM(Deciler!I4:J4)/2</f>
-        <v>502810.91000000003</v>
+        <f>SUM(Deciler!I25:J25)/2</f>
+        <v>237438.08499999999</v>
       </c>
       <c r="F4" s="7">
-        <f>SUM(Deciler!K4:L4)/2</f>
-        <v>780483.31</v>
+        <f>SUM(Deciler!K25:L25)/2</f>
+        <v>347167.1</v>
       </c>
       <c r="G4" s="7">
-        <f>Deciler!B4</f>
-        <v>419971.79</v>
+        <f>Deciler!B25</f>
+        <v>216012.44</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>8.4430083092395289E-2</v>
+        <v>0.1077976913241101</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>0.12969811128759057</v>
+        <v>0.15616652041849602</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>0.18387536571342894</v>
+        <v>0.18808065880456448</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>0.23586982084762326</v>
+        <v>0.22255262173770643</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
-        <v>0.36612661905896193</v>
+        <v>0.32540250771512286</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="B5" s="7">
-        <f>SUM(Deciler!C5:D5)/2</f>
-        <v>189581.09</v>
+        <f>SUM(Deciler!C24:D24)/2</f>
+        <v>119620.10500000001</v>
       </c>
       <c r="C5" s="7">
-        <f>SUM(Deciler!E5:F5)/2</f>
-        <v>279678.75</v>
+        <f>SUM(Deciler!E24:F24)/2</f>
+        <v>166125.935</v>
       </c>
       <c r="D5" s="7">
-        <f>SUM(Deciler!G5:H5)/2</f>
-        <v>375321.65</v>
+        <f>SUM(Deciler!G24:H24)/2</f>
+        <v>210170.34</v>
       </c>
       <c r="E5" s="7">
-        <f>SUM(Deciler!I5:J5)/2</f>
-        <v>503595.35</v>
+        <f>SUM(Deciler!I24:J24)/2</f>
+        <v>251009.94500000001</v>
       </c>
       <c r="F5" s="7">
-        <f>SUM(Deciler!K5:L5)/2</f>
-        <v>750138.625</v>
+        <f>SUM(Deciler!K24:L24)/2</f>
+        <v>373853.51500000001</v>
       </c>
       <c r="G5" s="7">
-        <f>Deciler!B5</f>
-        <v>413248.63</v>
+        <f>Deciler!B24</f>
+        <v>227767.15</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>9.0349183982209272E-2</v>
+        <v>0.10672935105613608</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0.13328727479974037</v>
+        <v>0.14822352175785034</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>0.17886807596873908</v>
+        <v>0.18752152072970907</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>0.23999982767128869</v>
+        <v>0.22396008211568119</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
-        <v>0.35749563757802266</v>
+        <v>0.33356552434062348</v>
       </c>
       <c r="Q5">
         <v>392009.15</v>
@@ -1732,52 +1735,52 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="B6" s="7">
-        <f>SUM(Deciler!C6:D6)/2</f>
-        <v>195560.16500000001</v>
+        <f>SUM(Deciler!C23:D23)/2</f>
+        <v>131371.71</v>
       </c>
       <c r="C6" s="7">
-        <f>SUM(Deciler!E6:F6)/2</f>
-        <v>283535.59999999998</v>
+        <f>SUM(Deciler!E23:F23)/2</f>
+        <v>173433.65</v>
       </c>
       <c r="D6" s="7">
-        <f>SUM(Deciler!G6:H6)/2</f>
-        <v>423854.41500000004</v>
+        <f>SUM(Deciler!G23:H23)/2</f>
+        <v>220522.565</v>
       </c>
       <c r="E6" s="7">
-        <f>SUM(Deciler!I6:J6)/2</f>
-        <v>512324.815</v>
+        <f>SUM(Deciler!I23:J23)/2</f>
+        <v>265509.59999999998</v>
       </c>
       <c r="F6" s="7">
-        <f>SUM(Deciler!K6:L6)/2</f>
-        <v>795087.47</v>
+        <f>SUM(Deciler!K23:L23)/2</f>
+        <v>417379.14</v>
       </c>
       <c r="G6" s="7">
-        <f>Deciler!B6</f>
-        <v>437764.35</v>
+        <f>Deciler!B23</f>
+        <v>244767.46</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>8.8474251665325854E-2</v>
+        <v>0.10873191357611342</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.12827561293210796</v>
+        <v>0.14354515628204814</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>0.19175787759316662</v>
+        <v>0.18251905588473238</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>0.23178316819635283</v>
+        <v>0.21975330062178869</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>0.35970908961304682</v>
+        <v>0.34545057363531728</v>
       </c>
       <c r="Q6">
         <v>8.3165059375697833E-2</v>
@@ -1797,52 +1800,52 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="B7" s="7">
-        <f>SUM(Deciler!C7:D7)/2</f>
-        <v>188388.67499999999</v>
+        <f>SUM(Deciler!C22:D22)/2</f>
+        <v>130090.61500000001</v>
       </c>
       <c r="C7" s="7">
-        <f>SUM(Deciler!E7:F7)/2</f>
-        <v>276468</v>
+        <f>SUM(Deciler!E22:F22)/2</f>
+        <v>178584.36499999999</v>
       </c>
       <c r="D7" s="7">
-        <f>SUM(Deciler!G7:H7)/2</f>
-        <v>403043.9</v>
+        <f>SUM(Deciler!G22:H22)/2</f>
+        <v>225920.22</v>
       </c>
       <c r="E7" s="7">
-        <f>SUM(Deciler!I7:J7)/2</f>
-        <v>488944.83499999996</v>
+        <f>SUM(Deciler!I22:J22)/2</f>
+        <v>274929.005</v>
       </c>
       <c r="F7" s="7">
-        <f>SUM(Deciler!K7:L7)/2</f>
-        <v>789683.82499999995</v>
+        <f>SUM(Deciler!K22:L22)/2</f>
+        <v>427280.54000000004</v>
       </c>
       <c r="G7" s="7">
-        <f>Deciler!B7</f>
-        <v>427977.58</v>
+        <f>Deciler!B22</f>
+        <v>249759.32</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>8.7764318290312032E-2</v>
+        <v>0.10518282334047804</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>0.12879768674569206</v>
+        <v>0.14439172045705564</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0.18776539048628427</v>
+        <v>0.18266441886912391</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>0.22778391602013284</v>
+        <v>0.22228973984086711</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
-        <v>0.36788868845757883</v>
+        <v>0.34547129749247524</v>
       </c>
       <c r="Q7">
         <v>392009.15</v>
@@ -1850,52 +1853,52 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM(Deciler!C8:D8)/2</f>
-        <v>180551.86</v>
+        <f>SUM(Deciler!C21:D21)/2</f>
+        <v>128777.51000000001</v>
       </c>
       <c r="C8" s="7">
-        <f>SUM(Deciler!E8:F8)/2</f>
-        <v>279525.26500000001</v>
+        <f>SUM(Deciler!E21:F21)/2</f>
+        <v>189905.82500000001</v>
       </c>
       <c r="D8" s="7">
-        <f>SUM(Deciler!G8:H8)/2</f>
-        <v>390301.77</v>
+        <f>SUM(Deciler!G21:H21)/2</f>
+        <v>232415.45</v>
       </c>
       <c r="E8" s="7">
-        <f>SUM(Deciler!I8:J8)/2</f>
-        <v>492327.10499999998</v>
+        <f>SUM(Deciler!I21:J21)/2</f>
+        <v>294799.04500000004</v>
       </c>
       <c r="F8" s="7">
-        <f>SUM(Deciler!K8:L8)/2</f>
-        <v>779455.72500000009</v>
+        <f>SUM(Deciler!K21:L21)/2</f>
+        <v>449161.625</v>
       </c>
       <c r="G8" s="7">
-        <f>Deciler!B8</f>
-        <v>419308.88</v>
+        <f>Deciler!B21</f>
+        <v>259588.84</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>8.5079217984670788E-2</v>
+        <v>9.9437527368193307E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.13171723045754205</v>
+        <v>0.14663869235254531</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>0.18391707163599891</v>
+        <v>0.17946315059334478</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>0.23199320730374587</v>
+        <v>0.2276335992620509</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
-        <v>0.36729327261804234</v>
+        <v>0.34682703042386576</v>
       </c>
       <c r="Q8">
         <v>612026.48</v>
@@ -1903,52 +1906,52 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM(Deciler!C9:D9)/2</f>
-        <v>168631.495</v>
+        <f>SUM(Deciler!C20:D20)/2</f>
+        <v>122470.895</v>
       </c>
       <c r="C9" s="7">
-        <f>SUM(Deciler!E9:F9)/2</f>
-        <v>262709.70499999996</v>
+        <f>SUM(Deciler!E20:F20)/2</f>
+        <v>185341.88</v>
       </c>
       <c r="D9" s="7">
-        <f>SUM(Deciler!G9:H9)/2</f>
-        <v>368868.32499999995</v>
+        <f>SUM(Deciler!G20:H20)/2</f>
+        <v>247829.72999999998</v>
       </c>
       <c r="E9" s="7">
-        <f>SUM(Deciler!I9:J9)/2</f>
-        <v>456950.23</v>
+        <f>SUM(Deciler!I20:J20)/2</f>
+        <v>307773.14500000002</v>
       </c>
       <c r="F9" s="7">
-        <f>SUM(Deciler!K9:L9)/2</f>
-        <v>681045.625</v>
+        <f>SUM(Deciler!K20:L20)/2</f>
+        <v>449797.51500000001</v>
       </c>
       <c r="G9" s="7">
-        <f>Deciler!B9</f>
-        <v>387035.24</v>
+        <f>Deciler!B20</f>
+        <v>262585.51</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>8.7003935052538145E-2</v>
+        <v>9.3260483723524051E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.13554275914763994</v>
+        <v>0.14113617266394066</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>0.19031436441477631</v>
+        <v>0.1887201077518896</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>0.23575944774232338</v>
+        <v>0.23436647849932271</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
-        <v>0.35137949364272225</v>
+        <v>0.34251675736132298</v>
       </c>
       <c r="Q9">
         <v>927983.33000000007</v>
@@ -1956,52 +1959,52 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="B10" s="7">
-        <f>SUM(Deciler!C10:D10)/2</f>
-        <v>173996.81</v>
+        <f>SUM(Deciler!C19:D19)/2</f>
+        <v>119420.01</v>
       </c>
       <c r="C10" s="7">
-        <f>SUM(Deciler!E10:F10)/2</f>
-        <v>257783.33499999999</v>
+        <f>SUM(Deciler!E19:F19)/2</f>
+        <v>186297.05499999999</v>
       </c>
       <c r="D10" s="7">
-        <f>SUM(Deciler!G10:H10)/2</f>
-        <v>367204.76500000001</v>
+        <f>SUM(Deciler!G19:H19)/2</f>
+        <v>253699.13999999998</v>
       </c>
       <c r="E10" s="7">
-        <f>SUM(Deciler!I10:J10)/2</f>
-        <v>447177.43</v>
+        <f>SUM(Deciler!I19:J19)/2</f>
+        <v>306322.65500000003</v>
       </c>
       <c r="F10" s="7">
-        <f>SUM(Deciler!K10:L10)/2</f>
-        <v>655099.73</v>
+        <f>SUM(Deciler!K19:L19)/2</f>
+        <v>453075.255</v>
       </c>
       <c r="G10" s="7">
-        <f>Deciler!B10</f>
-        <v>381345.8</v>
+        <f>Deciler!B19</f>
+        <v>262693.32</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>9.1516478840815457E-2</v>
+        <v>9.055105540783509E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.13558537724365372</v>
+        <v>0.14126104117410057</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0.19313737479652135</v>
+        <v>0.19236914218195184</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>0.23520031091768426</v>
+        <v>0.23227128942277056</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
-        <v>0.34456045820132514</v>
+        <v>0.34354747181334194</v>
       </c>
       <c r="Q10">
         <v>1083464.21</v>
@@ -2009,52 +2012,52 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B11" s="7">
-        <f>SUM(Deciler!C11:D11)/2</f>
-        <v>165013.035</v>
+        <f>SUM(Deciler!C18:D18)/2</f>
+        <v>121527.285</v>
       </c>
       <c r="C11" s="7">
-        <f>SUM(Deciler!E11:F11)/2</f>
-        <v>256541.09000000003</v>
+        <f>SUM(Deciler!E18:F18)/2</f>
+        <v>191759.29499999998</v>
       </c>
       <c r="D11" s="7">
-        <f>SUM(Deciler!G11:H11)/2</f>
-        <v>359348.56999999995</v>
+        <f>SUM(Deciler!G18:H18)/2</f>
+        <v>252627.18</v>
       </c>
       <c r="E11" s="7">
-        <f>SUM(Deciler!I11:J11)/2</f>
-        <v>450571.625</v>
+        <f>SUM(Deciler!I18:J18)/2</f>
+        <v>317555.45</v>
       </c>
       <c r="F11" s="7">
-        <f>SUM(Deciler!K11:L11)/2</f>
-        <v>640517.63</v>
+        <f>SUM(Deciler!K18:L18)/2</f>
+        <v>466179.41500000004</v>
       </c>
       <c r="G11" s="7">
-        <f>Deciler!B11</f>
-        <v>374325.19</v>
+        <f>Deciler!B18</f>
+        <v>268801.44</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>8.8148367838868119E-2</v>
+        <v>9.0043647471578017E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.13704176986444844</v>
+        <v>0.14208090272384782</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0.19196053166788457</v>
+        <v>0.18717996322931829</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>0.24069100564241211</v>
+        <v>0.23528749936673332</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
-        <v>0.34215832498638687</v>
+        <v>0.34540798720852256</v>
       </c>
       <c r="Q11">
         <v>1698144.8</v>
@@ -2062,102 +2065,102 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B12" s="7">
-        <f>SUM(Deciler!C12:D12)/2</f>
-        <v>145634.095</v>
+        <f>SUM(Deciler!C17:D17)/2</f>
+        <v>145067.85500000001</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(Deciler!E12:F12)/2</f>
-        <v>247585.55</v>
+        <f>SUM(Deciler!E17:F17)/2</f>
+        <v>213839.05499999999</v>
       </c>
       <c r="D12" s="7">
-        <f>SUM(Deciler!G12:H12)/2</f>
-        <v>349813.38</v>
+        <f>SUM(Deciler!G17:H17)/2</f>
+        <v>283071.26500000001</v>
       </c>
       <c r="E12" s="7">
-        <f>SUM(Deciler!I12:J12)/2</f>
-        <v>429580.9</v>
+        <f>SUM(Deciler!I17:J17)/2</f>
+        <v>330353.8</v>
       </c>
       <c r="F12" s="7">
-        <f>SUM(Deciler!K12:L12)/2</f>
-        <v>622082.79500000004</v>
+        <f>SUM(Deciler!K17:L17)/2</f>
+        <v>508664.78500000003</v>
       </c>
       <c r="G12" s="7">
-        <f>Deciler!B12</f>
-        <v>359117.08</v>
+        <f>Deciler!B17</f>
+        <v>297393.11</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>8.1146910994521676E-2</v>
+        <v>9.7952851024468129E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.13795397698169301</v>
+        <v>0.1443886041992421</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>0.1949150383469804</v>
+        <v>0.19113564097196267</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>0.23936127770936139</v>
+        <v>0.22306179792047617</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.34662279596744344</v>
+        <v>0.34346110588385076</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B13" s="7">
-        <f>SUM(Deciler!C13:D13)/2</f>
-        <v>153335.47999999998</v>
+        <f>SUM(Deciler!C16:D16)/2</f>
+        <v>152549.285</v>
       </c>
       <c r="C13" s="7">
-        <f>SUM(Deciler!E13:F13)/2</f>
-        <v>260583.38500000001</v>
+        <f>SUM(Deciler!E16:F16)/2</f>
+        <v>227219.94</v>
       </c>
       <c r="D13" s="7">
-        <f>SUM(Deciler!G13:H13)/2</f>
-        <v>345499.10499999998</v>
+        <f>SUM(Deciler!G16:H16)/2</f>
+        <v>308578.71999999997</v>
       </c>
       <c r="E13" s="7">
-        <f>SUM(Deciler!I13:J13)/2</f>
-        <v>429545.25</v>
+        <f>SUM(Deciler!I16:J16)/2</f>
+        <v>369173.25</v>
       </c>
       <c r="F13" s="7">
-        <f>SUM(Deciler!K13:L13)/2</f>
-        <v>647620.49</v>
+        <f>SUM(Deciler!K16:L16)/2</f>
+        <v>539534.26500000001</v>
       </c>
       <c r="G13" s="7">
-        <f>Deciler!B13</f>
-        <v>369397.99</v>
+        <f>Deciler!B16</f>
+        <v>321023.71999999997</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>8.3489513255020645E-2</v>
+        <v>9.5519090489193159E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.14188483954265282</v>
+        <v>0.14227429522078089</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>0.18812053222447453</v>
+        <v>0.19321728501526175</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.2338827507078346</v>
+        <v>0.23115869125797298</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
-        <v>0.35262236427001742</v>
+        <v>0.33783063801679125</v>
       </c>
       <c r="Q13">
         <v>8.3165059375697833E-2</v>
@@ -2165,52 +2168,52 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B14" s="7">
-        <f>SUM(Deciler!C14:D14)/2</f>
-        <v>127635.09000000001</v>
+        <f>SUM(Deciler!C15:D15)/2</f>
+        <v>156311.72500000001</v>
       </c>
       <c r="C14" s="7">
-        <f>SUM(Deciler!E14:F14)/2</f>
-        <v>252142.785</v>
+        <f>SUM(Deciler!E15:F15)/2</f>
+        <v>229744.38999999998</v>
       </c>
       <c r="D14" s="7">
-        <f>SUM(Deciler!G14:H14)/2</f>
-        <v>336451.04499999998</v>
+        <f>SUM(Deciler!G15:H15)/2</f>
+        <v>329554.57999999996</v>
       </c>
       <c r="E14" s="7">
-        <f>SUM(Deciler!I14:J14)/2</f>
-        <v>394747.005</v>
+        <f>SUM(Deciler!I15:J15)/2</f>
+        <v>373596.11499999999</v>
       </c>
       <c r="F14" s="7">
-        <f>SUM(Deciler!K14:L14)/2</f>
-        <v>624086.54500000004</v>
+        <f>SUM(Deciler!K15:L15)/2</f>
+        <v>553463.84000000008</v>
       </c>
       <c r="G14" s="7">
-        <f>Deciler!B14</f>
-        <v>348412.84</v>
+        <f>Deciler!B15</f>
+        <v>333822.03000000003</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>7.3562244706958616E-2</v>
+        <v>9.51570693735838E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.14532202117195242</v>
+        <v>0.13986028787937493</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0.193912928679738</v>
+        <v>0.2006212139968532</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>0.22751169587571107</v>
+        <v>0.22743214837374731</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
-        <v>0.3596911095656401</v>
+        <v>0.33692928037644065</v>
       </c>
       <c r="Q14">
         <v>0.12984191452852398</v>
@@ -2218,52 +2221,52 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B15" s="7">
-        <f>SUM(Deciler!C15:D15)/2</f>
-        <v>156311.72500000001</v>
+        <f>SUM(Deciler!C14:D14)/2</f>
+        <v>127635.09000000001</v>
       </c>
       <c r="C15" s="7">
-        <f>SUM(Deciler!E15:F15)/2</f>
-        <v>229744.38999999998</v>
+        <f>SUM(Deciler!E14:F14)/2</f>
+        <v>252142.785</v>
       </c>
       <c r="D15" s="7">
-        <f>SUM(Deciler!G15:H15)/2</f>
-        <v>329554.57999999996</v>
+        <f>SUM(Deciler!G14:H14)/2</f>
+        <v>336451.04499999998</v>
       </c>
       <c r="E15" s="7">
-        <f>SUM(Deciler!I15:J15)/2</f>
-        <v>373596.11499999999</v>
+        <f>SUM(Deciler!I14:J14)/2</f>
+        <v>394747.005</v>
       </c>
       <c r="F15" s="7">
-        <f>SUM(Deciler!K15:L15)/2</f>
-        <v>553463.84000000008</v>
+        <f>SUM(Deciler!K14:L14)/2</f>
+        <v>624086.54500000004</v>
       </c>
       <c r="G15" s="7">
-        <f>Deciler!B15</f>
-        <v>333822.03000000003</v>
+        <f>Deciler!B14</f>
+        <v>348412.84</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>9.51570693735838E-2</v>
+        <v>7.3562244706958616E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.13986028787937493</v>
+        <v>0.14532202117195242</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0.2006212139968532</v>
+        <v>0.193912928679738</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>0.22743214837374731</v>
+        <v>0.22751169587571107</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
-        <v>0.33692928037644065</v>
+        <v>0.3596911095656401</v>
       </c>
       <c r="Q15">
         <v>0.19687241672575193</v>
@@ -2271,52 +2274,52 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="7">
-        <f>SUM(Deciler!C16:D16)/2</f>
-        <v>152549.285</v>
+        <f>SUM(Deciler!C13:D13)/2</f>
+        <v>153335.47999999998</v>
       </c>
       <c r="C16" s="7">
-        <f>SUM(Deciler!E16:F16)/2</f>
-        <v>227219.94</v>
+        <f>SUM(Deciler!E13:F13)/2</f>
+        <v>260583.38500000001</v>
       </c>
       <c r="D16" s="7">
-        <f>SUM(Deciler!G16:H16)/2</f>
-        <v>308578.71999999997</v>
+        <f>SUM(Deciler!G13:H13)/2</f>
+        <v>345499.10499999998</v>
       </c>
       <c r="E16" s="7">
-        <f>SUM(Deciler!I16:J16)/2</f>
-        <v>369173.25</v>
+        <f>SUM(Deciler!I13:J13)/2</f>
+        <v>429545.25</v>
       </c>
       <c r="F16" s="7">
-        <f>SUM(Deciler!K16:L16)/2</f>
-        <v>539534.26500000001</v>
+        <f>SUM(Deciler!K13:L13)/2</f>
+        <v>647620.49</v>
       </c>
       <c r="G16" s="7">
-        <f>Deciler!B16</f>
-        <v>321023.71999999997</v>
+        <f>Deciler!B13</f>
+        <v>369397.99</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>9.5519090489193159E-2</v>
+        <v>8.3489513255020645E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.14227429522078089</v>
+        <v>0.14188483954265282</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0.19321728501526175</v>
+        <v>0.18812053222447453</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>0.23115869125797298</v>
+        <v>0.2338827507078346</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
-        <v>0.33783063801679125</v>
+        <v>0.35262236427001742</v>
       </c>
       <c r="Q16">
         <v>0.22985781162529889</v>
@@ -2324,52 +2327,52 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="7">
-        <f>SUM(Deciler!C17:D17)/2</f>
-        <v>145067.85500000001</v>
+        <f>SUM(Deciler!C12:D12)/2</f>
+        <v>145634.095</v>
       </c>
       <c r="C17" s="7">
-        <f>SUM(Deciler!E17:F17)/2</f>
-        <v>213839.05499999999</v>
+        <f>SUM(Deciler!E12:F12)/2</f>
+        <v>247585.55</v>
       </c>
       <c r="D17" s="7">
-        <f>SUM(Deciler!G17:H17)/2</f>
-        <v>283071.26500000001</v>
+        <f>SUM(Deciler!G12:H12)/2</f>
+        <v>349813.38</v>
       </c>
       <c r="E17" s="7">
-        <f>SUM(Deciler!I17:J17)/2</f>
-        <v>330353.8</v>
+        <f>SUM(Deciler!I12:J12)/2</f>
+        <v>429580.9</v>
       </c>
       <c r="F17" s="7">
-        <f>SUM(Deciler!K17:L17)/2</f>
-        <v>508664.78500000003</v>
+        <f>SUM(Deciler!K12:L12)/2</f>
+        <v>622082.79500000004</v>
       </c>
       <c r="G17" s="7">
-        <f>Deciler!B17</f>
-        <v>297393.11</v>
+        <f>Deciler!B12</f>
+        <v>359117.08</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>9.7952851024468129E-2</v>
+        <v>8.1146910994521676E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.1443886041992421</v>
+        <v>0.13795397698169301</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0.19113564097196267</v>
+        <v>0.1949150383469804</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>0.22306179792047617</v>
+        <v>0.23936127770936139</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>0.34346110588385076</v>
+        <v>0.34662279596744344</v>
       </c>
       <c r="Q17">
         <v>0.36026279774472741</v>
@@ -2377,505 +2380,510 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B18" s="7">
-        <f>SUM(Deciler!C18:D18)/2</f>
-        <v>121527.285</v>
+        <f>SUM(Deciler!C11:D11)/2</f>
+        <v>165013.035</v>
       </c>
       <c r="C18" s="7">
-        <f>SUM(Deciler!E18:F18)/2</f>
-        <v>191759.29499999998</v>
+        <f>SUM(Deciler!E11:F11)/2</f>
+        <v>256541.09000000003</v>
       </c>
       <c r="D18" s="7">
-        <f>SUM(Deciler!G18:H18)/2</f>
-        <v>252627.18</v>
+        <f>SUM(Deciler!G11:H11)/2</f>
+        <v>359348.56999999995</v>
       </c>
       <c r="E18" s="7">
-        <f>SUM(Deciler!I18:J18)/2</f>
-        <v>317555.45</v>
+        <f>SUM(Deciler!I11:J11)/2</f>
+        <v>450571.625</v>
       </c>
       <c r="F18" s="7">
-        <f>SUM(Deciler!K18:L18)/2</f>
-        <v>466179.41500000004</v>
+        <f>SUM(Deciler!K11:L11)/2</f>
+        <v>640517.63</v>
       </c>
       <c r="G18" s="7">
-        <f>Deciler!B18</f>
-        <v>268801.44</v>
+        <f>Deciler!B11</f>
+        <v>374325.19</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>9.0043647471578017E-2</v>
+        <v>8.8148367838868119E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>0.14208090272384782</v>
+        <v>0.13704176986444844</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0.18717996322931829</v>
+        <v>0.19196053166788457</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>0.23528749936673332</v>
+        <v>0.24069100564241211</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
-        <v>0.34540798720852256</v>
+        <v>0.34215832498638687</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="B19" s="7">
-        <f>SUM(Deciler!C19:D19)/2</f>
-        <v>119420.01</v>
+        <f>SUM(Deciler!C10:D10)/2</f>
+        <v>173996.81</v>
       </c>
       <c r="C19" s="7">
-        <f>SUM(Deciler!E19:F19)/2</f>
-        <v>186297.05499999999</v>
+        <f>SUM(Deciler!E10:F10)/2</f>
+        <v>257783.33499999999</v>
       </c>
       <c r="D19" s="7">
-        <f>SUM(Deciler!G19:H19)/2</f>
-        <v>253699.13999999998</v>
+        <f>SUM(Deciler!G10:H10)/2</f>
+        <v>367204.76500000001</v>
       </c>
       <c r="E19" s="7">
-        <f>SUM(Deciler!I19:J19)/2</f>
-        <v>306322.65500000003</v>
+        <f>SUM(Deciler!I10:J10)/2</f>
+        <v>447177.43</v>
       </c>
       <c r="F19" s="7">
-        <f>SUM(Deciler!K19:L19)/2</f>
-        <v>453075.255</v>
+        <f>SUM(Deciler!K10:L10)/2</f>
+        <v>655099.73</v>
       </c>
       <c r="G19" s="7">
-        <f>Deciler!B19</f>
-        <v>262693.32</v>
+        <f>Deciler!B10</f>
+        <v>381345.8</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>9.055105540783509E-2</v>
+        <v>9.1516478840815457E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.14126104117410057</v>
+        <v>0.13558537724365372</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>0.19236914218195184</v>
+        <v>0.19313737479652135</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>0.23227128942277056</v>
+        <v>0.23520031091768426</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
-        <v>0.34354747181334194</v>
+        <v>0.34456045820132514</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="B20" s="7">
-        <f>SUM(Deciler!C20:D20)/2</f>
-        <v>122470.895</v>
+        <f>SUM(Deciler!C9:D9)/2</f>
+        <v>168631.495</v>
       </c>
       <c r="C20" s="7">
-        <f>SUM(Deciler!E20:F20)/2</f>
-        <v>185341.88</v>
+        <f>SUM(Deciler!E9:F9)/2</f>
+        <v>262709.70499999996</v>
       </c>
       <c r="D20" s="7">
-        <f>SUM(Deciler!G20:H20)/2</f>
-        <v>247829.72999999998</v>
+        <f>SUM(Deciler!G9:H9)/2</f>
+        <v>368868.32499999995</v>
       </c>
       <c r="E20" s="7">
-        <f>SUM(Deciler!I20:J20)/2</f>
-        <v>307773.14500000002</v>
+        <f>SUM(Deciler!I9:J9)/2</f>
+        <v>456950.23</v>
       </c>
       <c r="F20" s="7">
-        <f>SUM(Deciler!K20:L20)/2</f>
-        <v>449797.51500000001</v>
+        <f>SUM(Deciler!K9:L9)/2</f>
+        <v>681045.625</v>
       </c>
       <c r="G20" s="7">
-        <f>Deciler!B20</f>
-        <v>262585.51</v>
+        <f>Deciler!B9</f>
+        <v>387035.24</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>9.3260483723524051E-2</v>
+        <v>8.7003935052538145E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0.14113617266394066</v>
+        <v>0.13554275914763994</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>0.1887201077518896</v>
+        <v>0.19031436441477631</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>0.23436647849932271</v>
+        <v>0.23575944774232338</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
-        <v>0.34251675736132298</v>
+        <v>0.35137949364272225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="B21" s="7">
-        <f>SUM(Deciler!C21:D21)/2</f>
-        <v>128777.51000000001</v>
+        <f>SUM(Deciler!C8:D8)/2</f>
+        <v>180551.86</v>
       </c>
       <c r="C21" s="7">
-        <f>SUM(Deciler!E21:F21)/2</f>
-        <v>189905.82500000001</v>
+        <f>SUM(Deciler!E8:F8)/2</f>
+        <v>279525.26500000001</v>
       </c>
       <c r="D21" s="7">
-        <f>SUM(Deciler!G21:H21)/2</f>
-        <v>232415.45</v>
+        <f>SUM(Deciler!G8:H8)/2</f>
+        <v>390301.77</v>
       </c>
       <c r="E21" s="7">
-        <f>SUM(Deciler!I21:J21)/2</f>
-        <v>294799.04500000004</v>
+        <f>SUM(Deciler!I8:J8)/2</f>
+        <v>492327.10499999998</v>
       </c>
       <c r="F21" s="7">
-        <f>SUM(Deciler!K21:L21)/2</f>
-        <v>449161.625</v>
+        <f>SUM(Deciler!K8:L8)/2</f>
+        <v>779455.72500000009</v>
       </c>
       <c r="G21" s="7">
-        <f>Deciler!B21</f>
-        <v>259588.84</v>
+        <f>Deciler!B8</f>
+        <v>419308.88</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>9.9437527368193307E-2</v>
+        <v>8.5079217984670788E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>0.14663869235254531</v>
+        <v>0.13171723045754205</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>0.17946315059334478</v>
+        <v>0.18391707163599891</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>0.2276335992620509</v>
+        <v>0.23199320730374587</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
-        <v>0.34682703042386576</v>
+        <v>0.36729327261804234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="B22" s="7">
-        <f>SUM(Deciler!C22:D22)/2</f>
-        <v>130090.61500000001</v>
+        <f>SUM(Deciler!C7:D7)/2</f>
+        <v>188388.67499999999</v>
       </c>
       <c r="C22" s="7">
-        <f>SUM(Deciler!E22:F22)/2</f>
-        <v>178584.36499999999</v>
+        <f>SUM(Deciler!E7:F7)/2</f>
+        <v>276468</v>
       </c>
       <c r="D22" s="7">
-        <f>SUM(Deciler!G22:H22)/2</f>
-        <v>225920.22</v>
+        <f>SUM(Deciler!G7:H7)/2</f>
+        <v>403043.9</v>
       </c>
       <c r="E22" s="7">
-        <f>SUM(Deciler!I22:J22)/2</f>
-        <v>274929.005</v>
+        <f>SUM(Deciler!I7:J7)/2</f>
+        <v>488944.83499999996</v>
       </c>
       <c r="F22" s="7">
-        <f>SUM(Deciler!K22:L22)/2</f>
-        <v>427280.54000000004</v>
+        <f>SUM(Deciler!K7:L7)/2</f>
+        <v>789683.82499999995</v>
       </c>
       <c r="G22" s="7">
-        <f>Deciler!B22</f>
-        <v>249759.32</v>
+        <f>Deciler!B7</f>
+        <v>427977.58</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.10518282334047804</v>
+        <v>8.7764318290312032E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.14439172045705564</v>
+        <v>0.12879768674569206</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>0.18266441886912391</v>
+        <v>0.18776539048628427</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>0.22228973984086711</v>
+        <v>0.22778391602013284</v>
       </c>
       <c r="M22">
         <f t="shared" si="4"/>
-        <v>0.34547129749247524</v>
+        <v>0.36788868845757883</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="B23" s="7">
-        <f>SUM(Deciler!C23:D23)/2</f>
-        <v>131371.71</v>
+        <f>SUM(Deciler!C6:D6)/2</f>
+        <v>195560.16500000001</v>
       </c>
       <c r="C23" s="7">
-        <f>SUM(Deciler!E23:F23)/2</f>
-        <v>173433.65</v>
+        <f>SUM(Deciler!E6:F6)/2</f>
+        <v>283535.59999999998</v>
       </c>
       <c r="D23" s="7">
-        <f>SUM(Deciler!G23:H23)/2</f>
-        <v>220522.565</v>
+        <f>SUM(Deciler!G6:H6)/2</f>
+        <v>423854.41500000004</v>
       </c>
       <c r="E23" s="7">
-        <f>SUM(Deciler!I23:J23)/2</f>
-        <v>265509.59999999998</v>
+        <f>SUM(Deciler!I6:J6)/2</f>
+        <v>512324.815</v>
       </c>
       <c r="F23" s="7">
-        <f>SUM(Deciler!K23:L23)/2</f>
-        <v>417379.14</v>
+        <f>SUM(Deciler!K6:L6)/2</f>
+        <v>795087.47</v>
       </c>
       <c r="G23" s="7">
-        <f>Deciler!B23</f>
-        <v>244767.46</v>
+        <f>Deciler!B6</f>
+        <v>437764.35</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.10873191357611342</v>
+        <v>8.8474251665325854E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.14354515628204814</v>
+        <v>0.12827561293210796</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>0.18251905588473238</v>
+        <v>0.19175787759316662</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0.21975330062178869</v>
+        <v>0.23178316819635283</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
-        <v>0.34545057363531728</v>
+        <v>0.35970908961304682</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="B24" s="7">
-        <f>SUM(Deciler!C24:D24)/2</f>
-        <v>119620.10500000001</v>
+        <f>SUM(Deciler!C5:D5)/2</f>
+        <v>189581.09</v>
       </c>
       <c r="C24" s="7">
-        <f>SUM(Deciler!E24:F24)/2</f>
-        <v>166125.935</v>
+        <f>SUM(Deciler!E5:F5)/2</f>
+        <v>279678.75</v>
       </c>
       <c r="D24" s="7">
-        <f>SUM(Deciler!G24:H24)/2</f>
-        <v>210170.34</v>
+        <f>SUM(Deciler!G5:H5)/2</f>
+        <v>375321.65</v>
       </c>
       <c r="E24" s="7">
-        <f>SUM(Deciler!I24:J24)/2</f>
-        <v>251009.94500000001</v>
+        <f>SUM(Deciler!I5:J5)/2</f>
+        <v>503595.35</v>
       </c>
       <c r="F24" s="7">
-        <f>SUM(Deciler!K24:L24)/2</f>
-        <v>373853.51500000001</v>
+        <f>SUM(Deciler!K5:L5)/2</f>
+        <v>750138.625</v>
       </c>
       <c r="G24" s="7">
-        <f>Deciler!B24</f>
-        <v>227767.15</v>
+        <f>Deciler!B5</f>
+        <v>413248.63</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.10672935105613608</v>
+        <v>9.0349183982209272E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0.14822352175785034</v>
+        <v>0.13328727479974037</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.18752152072970907</v>
+        <v>0.17886807596873908</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0.22396008211568119</v>
+        <v>0.23999982767128869</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
-        <v>0.33356552434062348</v>
+        <v>0.35749563757802266</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="B25" s="7">
-        <f>SUM(Deciler!C25:D25)/2</f>
-        <v>115007.755</v>
+        <f>SUM(Deciler!C4:D4)/2</f>
+        <v>179982.19</v>
       </c>
       <c r="C25" s="7">
-        <f>SUM(Deciler!E25:F25)/2</f>
-        <v>166611.74</v>
+        <f>SUM(Deciler!E4:F4)/2</f>
+        <v>276481.43</v>
       </c>
       <c r="D25" s="7">
-        <f>SUM(Deciler!G25:H25)/2</f>
-        <v>200660.46000000002</v>
+        <f>SUM(Deciler!G4:H4)/2</f>
+        <v>391972.74</v>
       </c>
       <c r="E25" s="7">
-        <f>SUM(Deciler!I25:J25)/2</f>
-        <v>237438.08499999999</v>
+        <f>SUM(Deciler!I4:J4)/2</f>
+        <v>502810.91000000003</v>
       </c>
       <c r="F25" s="7">
-        <f>SUM(Deciler!K25:L25)/2</f>
-        <v>347167.1</v>
+        <f>SUM(Deciler!K4:L4)/2</f>
+        <v>780483.31</v>
       </c>
       <c r="G25" s="7">
-        <f>Deciler!B25</f>
-        <v>216012.44</v>
+        <f>Deciler!B4</f>
+        <v>419971.79</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.1077976913241101</v>
+        <v>8.4430083092395289E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>0.15616652041849602</v>
+        <v>0.12969811128759057</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>0.18808065880456448</v>
+        <v>0.18387536571342894</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>0.22255262173770643</v>
+        <v>0.23586982084762326</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
-        <v>0.32540250771512286</v>
+        <v>0.36612661905896193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="7">
-        <f>SUM(Deciler!C26:D26)/2</f>
-        <v>115699.905</v>
+        <f>SUM(Deciler!C3:D3)/2</f>
+        <v>188165.69500000001</v>
       </c>
       <c r="C26" s="7">
-        <f>SUM(Deciler!E26:F26)/2</f>
-        <v>156048.46000000002</v>
+        <f>SUM(Deciler!E3:F3)/2</f>
+        <v>299289.91499999998</v>
       </c>
       <c r="D26" s="7">
-        <f>SUM(Deciler!G26:H26)/2</f>
-        <v>197594.21</v>
+        <f>SUM(Deciler!G3:H3)/2</f>
+        <v>430003.01</v>
       </c>
       <c r="E26" s="7">
-        <f>SUM(Deciler!I26:J26)/2</f>
-        <v>229751.52499999999</v>
+        <f>SUM(Deciler!I3:J3)/2</f>
+        <v>529610.56000000006</v>
       </c>
       <c r="F26" s="7">
-        <f>SUM(Deciler!K26:L26)/2</f>
-        <v>332404.78500000003</v>
+        <f>SUM(Deciler!K3:L3)/2</f>
+        <v>812982.21</v>
       </c>
       <c r="G26" s="7">
-        <f>Deciler!B26</f>
-        <v>209328.22</v>
+        <f>Deciler!B3</f>
+        <v>444610.5</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.11216677660296259</v>
+        <v>8.3257263897879769E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>0.15128320764011299</v>
+        <v>0.1324261546990752</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>0.19156027492942951</v>
+        <v>0.19026249221704644</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>0.2227356018906409</v>
+        <v>0.23433562720890166</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
-        <v>0.32225413893685406</v>
+        <v>0.35971846197709684</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1994</v>
+      <c r="A27" s="2">
+        <v>2019</v>
       </c>
       <c r="B27" s="7">
-        <f>SUM(Deciler!C27:D27)/2</f>
-        <v>93519.425000000003</v>
+        <f>SUM(Deciler!C2:D2)/2</f>
+        <v>196004.57500000001</v>
       </c>
       <c r="C27" s="7">
-        <f>SUM(Deciler!E27:F27)/2</f>
-        <v>148161.17499999999</v>
+        <f>SUM(Deciler!E2:F2)/2</f>
+        <v>306013.24</v>
       </c>
       <c r="D27" s="7">
-        <f>SUM(Deciler!G27:H27)/2</f>
-        <v>190769.71999999997</v>
+        <f>SUM(Deciler!G2:H2)/2</f>
+        <v>463991.66500000004</v>
       </c>
       <c r="E27" s="7">
-        <f>SUM(Deciler!I27:J27)/2</f>
-        <v>223995.375</v>
+        <f>SUM(Deciler!I2:J2)/2</f>
+        <v>541732.10499999998</v>
       </c>
       <c r="F27" s="7">
-        <f>SUM(Deciler!K27:L27)/2</f>
-        <v>316743.72499999998</v>
+        <f>SUM(Deciler!K2:L2)/2</f>
+        <v>849072.4</v>
       </c>
       <c r="G27" s="7">
-        <f>Deciler!B27</f>
-        <v>196761.19</v>
+        <f>Deciler!B2</f>
+        <v>459281.68</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>9.6095809385186304E-2</v>
+        <v>8.3165059375697833E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.15224289532452995</v>
+        <v>0.12984191452852398</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>0.19602527121595711</v>
+        <v>0.19687241672575193</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>0.23016626609031571</v>
+        <v>0.22985781162529889</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
-        <v>0.32546975798401095</v>
+        <v>0.36026279774472741</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G27" xr:uid="{07FDDB58-DA72-E449-9C07-69F4A0F9C797}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+      <sortCondition ref="A1:A27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>